--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.082</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.266</v>
+        <v>29.246</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33.0777760584397</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.07790817152352</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.0777576403189</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33.07484930244042</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33.07470043429013</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.07478650567922</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.07764690367408</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.07752776176991</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.07751868857232</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.06580967046291</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.06579864314232</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.06579661866741</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.0650640199899</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.06502994890764</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.06500364865963</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.06142615888871</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.06169388629227</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.06151535869136</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>33.05674107890333</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.0567987987254</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.05692305738001</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.06154141315869</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.06126260198981</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.06163631490065</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.04083605099387</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.0409050233907</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33.0409344554969</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.03936625567523</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.03949396107346</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>33.039239775001</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.0562455966274</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.05627098358732</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.05672615498294</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.05179092288954</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.05146781798754</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.05167464412685</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.05673769013717</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.05650561702678</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33.05671074090171</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.03299321693886</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.033084757748</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.03313609271808</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.03131422034472</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.03148408206579</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.03112428001643</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33.07618161419203</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.07157341489525</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.07157890592552</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.06736429405178</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.0670790412349</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.06722513546065</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.07080182959695</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.07078109052557</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.07086011016212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.05632595783181</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.05606708660166</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.05607150696871</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.05535071184963</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.05513694808507</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.05513243345268</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.054353830663</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.05297631937409</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.05331424126616</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.04968428382178</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.04907385609398</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.04880333317305</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.05494962255167</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.05394998804126</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.05387278195194</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.03145560731856</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.03308785578606</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.03308140102994</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.03150333763477</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.03132538629828</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.03124483183033</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.05045578880723</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.04667623733079</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.04660628345913</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.04468304924765</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.04364955293051</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.04417018218962</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.05027777334043</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.04814494060616</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.04838885501464</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.02422510498008</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.02638113040248</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.02637878592419</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.02456442761339</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.02453460035965</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.02433117349036</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.07448459240674</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.0761627320594</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.07686722992318</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.0751677669867</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.07464901357611</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.07440488259464</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>33.07663035063148</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.07620656680839</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.07470195354063</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.06239797593658</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.06260264701273</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.06263638592551</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.06134815186117</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.06156069955487</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.06105657117453</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>33.0558973845332</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.05595727655686</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.05700792277454</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.05324821177044</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.0525754753276</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.05227564719298</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>33.05660718047939</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.05602998836025</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.0530871655513</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.03227600137582</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.03222718737475</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.03226552165565</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.03080604446449</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.03056071946538</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.03058503998948</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.04595421418286</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.04657564012861</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>33.04667338021233</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.04249404304938</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.042799863474</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.04269448046773</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.04791204960187</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.04787897003042</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.0478795401645</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.02658717020093</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>33.0267242393307</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33.02681524725085</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.02495577316757</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.02510328261455</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>33.02510800352218</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.07744457294606</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.07765276937187</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>33.07746968180468</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>33.07469223805777</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.07458741462079</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.07469895102284</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.07749620050475</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.07741474516168</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.07740553125268</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.06580447119146</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.06581318997014</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.06581802907165</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.0649798964609</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.0650170112119</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.06500812055842</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.06131383256505</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.06172123323562</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.06148387762134</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.05716837092471</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.05720945623621</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.05731587589015</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.0617747948988</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.06183830899567</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.04196864994066</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.04212595261126</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.04214785924442</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.04003700726676</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.04044276341526</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.04039730781789</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.05602280453022</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.0563826481062</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.05637128965106</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.05241769640709</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.05192242786951</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.05225905116132</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.05700116905214</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.05662621601764</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.0568727635588</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>33.03408755878709</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.03426284516215</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>33.03434209456962</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.03189795234571</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.03233626103059</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.03231351867681</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.08007073718404</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.08020331564884</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.07866973045212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.07584613531798</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.07563642711212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.07571651779033</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.0784296811435</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.07833601595579</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.07837810549982</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.06738808154812</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.06739274951185</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.06736960126979</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.06672481896494</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.06666802474726</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.06665576513572</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.06391879325999</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.06385773191843</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.0635588624033</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.05999274470363</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.05987089706929</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.05955857415716</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.0640088011996</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.06405434757388</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.04562000278617</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.04569588789175</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.04478962447407</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.04410497231719</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.04412438257651</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.04401623384686</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.05930605730764</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.05879822696444</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.05893333401335</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.05365928594093</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.05368361767674</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.054033951996</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.05868375317063</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.05847154693007</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.05877439692858</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.03723156588049</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.03749285268744</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.03764016504366</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.03661412805858</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.03672017087489</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.03666591094697</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.05741832434597</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.05684190611163</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.05692072927936</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.05606674456516</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.05817981178691</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.05811293982536</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.06166581840866</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.06052130956851</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.06056033073332</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>33.0450651421601</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.03792792055946</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.03802075666641</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.03573795803824</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.03616432245526</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.0361995112378</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>33.02961128329957</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.02699771118346</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.02675403601124</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.01860122730792</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.02163965059931</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.02163692541124</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.0286535820056</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.02709271688886</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.0272303298285</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.99643175297653</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.98638074885258</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.98748889407633</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.98587494292555</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.98508273101302</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.984949207574</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>33.0201431285998</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.01168396546559</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.00945058235063</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.00925189427438</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.01785823628509</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.01866654147003</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.01870754185155</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.97916726190077</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.97763795941889</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.97793408532427</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.97488788146437</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32.97740755074015</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.97740555786564</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.05711155770192</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.05654710363832</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.05643210030369</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.05233837138778</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.0451278791468</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.04547963043686</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.05136531165711</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.05139476246444</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.05135977441218</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.02594544435543</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.02575327093149</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.02576067873803</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.02417221798078</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>33.02425065680956</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.0243152382672</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.02527241131992</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>33.02404467968211</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.02411780450804</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.01609403120117</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.01746096616886</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.01788804979212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.02569593321642</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.02546384539188</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.0256563600491</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.98866021676888</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.98713934663451</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.98738043090921</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>32.98260104903753</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.98374810157363</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.98390788237734</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.01496721927494</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.01440322350131</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.01448274860692</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.00207066896315</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.00377008948394</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.00416903714618</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.01709487727639</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.01576587151423</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>33.01637679286597</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.9774083403417</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.97795863408368</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.97801572654881</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>32.9680299277981</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.96949869652615</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.96950623681792</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.07517810607756</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.0750164216791</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.07482033950534</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>33.07076250138157</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.07137004169543</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.06772172810139</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.07147021725015</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.0712865439736</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.07126179504985</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>33.05701585462466</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.05700317968386</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.05699830645666</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.05599631529233</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.0560222356561</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.05599034299959</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.05324026908998</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.05311185664456</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.05292458803345</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.047741161861</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>33.04754921316278</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.04795612490248</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.05355967082556</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.05343941614176</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.05352016269678</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.03043299200294</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.030387173657</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.02994586336236</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.02841466846409</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.025583331662</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.02635047153439</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.04701070186606</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.04624413245492</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.04638489617721</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.04050779879745</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.04037442974292</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.04050988088582</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.04609395724579</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.04584427980775</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.04655598297345</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.01854119526217</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.01872888627165</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.0182619627854</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.01537416687147</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.01597997325432</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.01703081918635</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.06466476070804</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.0641485120139</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.06412518391719</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.06056378875612</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.06018833305185</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.06319100656052</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.06841893700614</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.06786911543079</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.06791137516407</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.05441518395193</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.05455984110002</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.0546078995227</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.04563403655251</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.04634127761769</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.04634747775803</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.04034871216484</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.04012030875337</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>33.03989212267148</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.03013373574066</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.03178709003662</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.03186440870491</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.04090205806703</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>33.04015582619066</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.04029536985636</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.01376504012059</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.01401381969514</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.0140859916284</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.00396869335904</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.00499901627635</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.00493949704155</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.03433837204634</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.03344039912776</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>33.03327140603745</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.02723627822325</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.02518846916875</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.02503166504922</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.03211379529917</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.03279808103062</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.0328428889089</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.00013125478144</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.99880329342207</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.9990508072038</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>32.99649836254672</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.99874421183024</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.99874410572763</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>33.06785326592679</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.06742783919827</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.0673481624837</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.0643017726815</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.05918046456244</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.05946890657163</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.06384281727632</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.06385576193202</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.06385606101239</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.04477728706297</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.04460889273843</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.04461526484061</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.04338981277841</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.04355632747729</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.04360370926592</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.04418005087368</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.04320141193723</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.04324916179223</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.03728088998502</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.03823126741753</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.03852050972672</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.04438639424779</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.04418094789362</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.04434366418007</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.01659782253235</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.01548511530618</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.01565116850851</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.01193616372982</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.01286969301</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.01296646876905</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.03641694610385</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.03599155822034</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.03604068874572</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.02674226275433</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.02804215490166</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.02832781006356</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.0379940229331</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.03700942658003</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.03746439862611</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.00833919871508</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>33.00873424192674</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.0087683567787</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.00126842677533</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.00238678764444</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.0023772239804</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.07456787013267</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>33.0743644544708</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.07414222459219</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.06976625143791</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.07068575721804</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>33.0636271631542</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.06787169539505</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.06757514937469</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.06761028405958</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.05179178690081</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.05174349669745</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.05184884693401</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.05077079635224</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.05072814582336</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.05055473405273</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.05003145158721</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.04984961743453</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.04948700071607</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.04426891788698</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.04405927884596</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.04439733820639</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.05050227862995</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.05035885946764</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.05035468793984</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.02604640196657</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.02599342826954</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.02536604474907</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.02372834763406</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.02373861163205</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.02520643189892</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.04608196048726</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.0451153990487</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.04520188595709</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.03998587339917</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.03978947567051</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.04049252551157</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.04548234684212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.0451635326604</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>33.04608056350019</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.01914498764835</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.01950940874048</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.01840349283105</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>33.01523755919615</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.01616327768947</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>33.0179521510156</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.07463698277077</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.07426480042627</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.07425082655719</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.07164777643731</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.07138388184937</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.07329263718182</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.07710306257302</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.07671364414553</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.07674519239458</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.06672196544999</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.06681879948036</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.06683232364739</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.06077963472642</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.06124329980013</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.06123938962102</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.05684616902384</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.05664087240554</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.05647673025894</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.04949567842088</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.050607141891</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.05063773861317</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.05718371669482</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.05667073228037</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>33.05675983778689</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.03726035167455</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.03741752598377</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.03744644341316</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.03067068064514</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.0313809428074</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.03137895866406</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.05237950552542</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.05175758015487</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.05165516649689</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.04712985896034</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.04564281621348</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.04555884677323</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.05080010951707</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.05123879129344</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.05127008115503</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.02731738497909</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.02639610111896</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.02655686458274</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.02471549205949</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.02628786229319</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.02629102357673</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.07137682612432</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.07102774033132</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>33.0709624509435</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>33.06819210541372</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>33.06413533467521</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>33.06440222895359</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.06824724116059</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>33.06825926634375</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>33.0682583205531</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.05143653920493</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.05127434249025</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.05128201361693</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.05018948311363</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>33.05037789427706</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.0504157128638</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.05072739954277</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.04983281840042</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.04986423684198</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.04449025800058</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.04537038129234</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.045568640193</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.05087281670158</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.05063346391597</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.05077061850538</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>33.02629163048459</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.02537307622192</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.02549867343198</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>33.02217127922152</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.02303310043177</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.02309415317773</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.04405897020199</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.04362744510799</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.04369924081785</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.03562957145314</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.03676580615701</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.0370285550083</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.04536830204115</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.044523703812</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.04492644724881</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.0194103799448</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.01975594064171</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.01978344898367</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.01325525192048</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.01424306865468</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.0142257682969</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.07510948892097</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.07501248302074</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.07484218038738</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.07076107729999</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.07140154236767</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.06693669295375</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.07077797415139</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.07057749291464</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.07059698012755</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.05589961106589</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.05586665001918</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.05592477944683</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.05495141448321</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.05490961154638</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.05481214393953</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.0529239432064</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.05277730134748</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.05254290693393</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>33.04719639320274</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.04706122172136</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.04727174612093</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.05302357458321</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.05298216058543</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.05293103479497</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.029560483421</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.0295455397878</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.02918467124057</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.02755084030877</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.02623724119672</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>33.02721474381877</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.04793228857424</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.04731971891243</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.04741905289215</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.04177515739603</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.04170960705338</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.04178276093516</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.04719120263378</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.04704511097038</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.04772768296773</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.02043558403953</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.02066838449831</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.01996724493525</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.017301527982</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.01786882070294</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>33.01912146645039</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.07588144535875</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.07552889639368</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.07552211906449</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.07306200755373</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.07281620556599</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.07446743413784</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.07810652906005</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>33.07774284205043</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.07777645023159</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.06808647380772</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.06817303414164</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.06449362077696</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.06327489165934</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.06347227919727</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.06346328329926</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.05961119887489</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.05908140735979</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.0579697105701</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.05325505829752</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.0539857476947</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.05491905949299</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.05906055516941</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.05856367112391</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.0583111500397</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.04017781880543</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.04023822936085</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.03517317281644</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.03505009258078</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.03459102001585</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>33.03459724484923</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.05455196894533</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.05422172948393</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.05415910309212</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.04715547247864</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.04732075916612</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.0472332702233</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.05282247756529</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.05300637441231</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.05304259838488</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.02903902983217</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.02940358074574</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.02956000981941</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.0298539403416</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>33.02955111114761</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>33.02955090904845</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.08064112034005</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.08057904465033</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.08056225891438</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.07672875332279</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.07660732081896</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.07667925098617</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.07934146432952</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.07931314493003</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.07926072587568</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>33.06835573288275</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.06835711985115</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.06836658364548</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>33.06770438274053</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.06767653908432</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.06768379365387</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.06593498935277</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.06556031818628</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.06561691746842</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.06199877339527</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.06184343824771</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.06192487029777</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.06618054221521</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.06583350679537</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>33.0659045766436</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.04835798531028</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.04846543710197</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.04821804192837</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.04673917174026</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.04695065868882</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.04690593909496</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.06149225293017</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.06104330182659</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.06082535398988</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.05635681550922</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.0563710930371</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.05659852652649</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.06105107256972</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.06081197140667</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.06077006609322</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.04190438900117</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.04198378265266</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.04144895525194</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.03976424907444</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>33.03996272642787</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.03996797513234</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.08946781528001</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.08935230610604</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>33.08927650302105</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.08796714529637</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.0869792863484</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.08698101981877</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.0884884627332</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>33.08849776518123</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.08848406430774</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.08227219119773</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.0822428974985</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.08223778551023</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.08185618085236</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.08185794113479</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.08184931796978</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.07966545380582</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.07960448040653</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.07959222621808</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.07689227085807</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.07705411518362</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.07706467222409</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.0797060037719</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.07958465556067</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.07959623920738</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.06908629291281</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.0690455525995</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.06905917877351</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.06947951958382</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.06970336506939</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.06966623092272</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.07789248297354</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.07776422365303</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.07776690801186</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.07509896698264</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.07503895068714</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.07509568684403</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.07776416752878</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.07769558977711</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.0777674473921</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.06626318735651</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>33.06610150605317</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.06615926585997</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>33.06527539730456</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.06554468281551</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.0655692378954</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.07880597298068</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.07861269709795</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.07862424759976</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>33.07609407985009</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.07721426313769</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.07735915624198</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.07973971757101</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.07953886550754</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.07943856537025</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.06980820802732</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.06984064202877</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.06824092490119</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.06731115335033</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.0674052313973</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.06739916993543</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.06382930892784</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.06353419244078</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.06311583906498</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.05860635492147</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.05876424261113</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.05900340794608</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.06328479729199</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.06303892474339</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.06289271045669</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.04519951981225</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.04525592234711</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.04210966176743</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.04114459743002</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.04099949345404</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.04097307313154</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.05776068965105</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.05766785681732</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.05765118164371</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.0518421791683</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.05183600872861</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.05182924145992</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.0569806286016</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.05707371791868</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.0570814622391</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.0351321321184</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>33.0352745066694</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.03530617436573</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>33.03451530543097</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.03444138781506</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.03444111334799</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.07876784439532</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.07868729615458</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>33.07868299144429</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.07442303123073</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.07424270279151</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.07439201696815</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.07729898821071</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>33.0772316943913</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.07718793964566</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.06522795483976</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.06524501136924</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.06524694712041</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.06452430386237</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.06451141413673</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.06450299208102</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.06238303143756</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.06185178109103</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.06191576354023</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.05766482164773</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.05757544150192</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.05770763455202</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.06253954031735</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.06206696676205</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.06219819060548</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.04249484223148</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.04263531251737</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.04164233336947</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.03991168247624</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.04020495404166</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.04011709164739</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.05704067104283</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.05641775130472</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.05623840685035</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.05105484080023</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.05113930177862</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.05174705696307</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.05663352056887</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.05633171447196</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.05639845525217</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.03468613247576</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.03477877410814</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.03393450864706</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.03195193742951</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.03223087724544</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.03220202688925</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.08954822730124</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>33.08943265209678</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.08935379735652</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>33.08806298365378</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>33.08702772914568</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.08702949508434</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.08853134554243</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.0885408697085</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>33.08852770428238</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.08233633989541</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.08230783116872</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.08230278013833</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.08192253578651</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.08192334893653</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.08191481088105</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.07976067180786</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.07969998676194</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.07968722171735</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.07700089883567</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.07716798590037</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.07717653520403</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.07980187458048</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.07968329540176</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.07969390354652</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.06923852993266</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.06919758237517</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.06921087724246</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.06972110522155</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.06996391003864</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.06992990451582</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.07806272366295</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>33.07792962632268</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.07793120752832</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.07530660006839</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>33.0752572822247</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.07531431139027</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.07794996638834</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.07788026964684</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.0779525092505</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>33.06657686094311</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.06640613947097</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.06646519116992</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.06558058810403</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.06587210711401</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.06589774316596</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>33.07632151457208</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.07597611384136</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.07603266487195</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.07340737266178</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>33.07493467819371</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.07532486293582</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.07776291388065</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.07742027127226</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.07733159560336</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.06717055031589</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.06720747179597</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>33.06475563863984</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.06363346762497</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.06380468015508</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>33.0637615404157</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.05987883084781</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.05936549056788</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.05869274267013</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>33.05381164321255</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>33.05414911974173</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.0547418956358</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.05921379110822</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.0587871851052</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.05867322205827</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.03958273711832</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.03964149728087</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.03628197103045</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.03577309307803</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.03540303331161</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.03536746748043</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.05409736914811</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.05392281461533</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.05390577395268</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>33.04716675427218</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.04723784690793</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.04719507082307</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>33.05276195165687</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.05294131884309</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>33.05297863748888</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>33.02898836102418</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>33.02925956803481</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>33.02933221381814</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.02903310272378</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>33.02882125253602</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.02881635940052</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.07792066456737</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.07784283557118</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.07783484352025</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>33.07330569325523</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>33.07309872880004</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.07330018290463</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.07628017918486</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.07618930709351</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.0761782792941</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.06374920184665</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.06377246449002</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.06376567501029</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.06296619871308</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.06295031683425</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.06293428229966</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.06099577731367</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.06046282664583</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.06047909239825</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.0555538783569</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.05565163325738</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.05575875868892</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.06086189753416</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.06042474290686</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.06054660464824</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.03972521183988</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.03990016769541</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.03821202161405</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.03639907649487</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.03669704712218</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.0366071718312</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.05511782465649</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.05446588739137</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.05425666689156</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.04867229968863</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.04889068494786</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.04990130700381</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.05494652340386</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>33.05464097242564</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.05476330219898</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.03146978720169</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.03155415249383</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.03033500449245</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.02827222683631</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>33.02855342223626</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.0284887021817</v>
+        <v>33.10071924592777</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.252</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.777</v>
+        <v>21.332</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.081</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.246</v>
+        <v>24.515</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.417</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.22</v>
+        <v>19.946</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33.10071924592777</v>
+        <v>-8.563063755129999</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.10071924592777</v>
+        <v>27.68586941358464</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.10071924592777</v>
+        <v>35.62616657130715</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33.10071924592777</v>
+        <v>6.006332107389742</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33.10071924592777</v>
+        <v>17.52490939879815</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.10071924592777</v>
+        <v>23.35520232052611</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33.10071924592777</v>
+        <v>18.26159992594657</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.10071924592777</v>
+        <v>22.41815567714216</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.10071924592777</v>
+        <v>26.77613343201753</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.10071924592777</v>
+        <v>28.76454537612787</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.10071924592777</v>
+        <v>35.80722610158179</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.10071924592777</v>
+        <v>39.47558405880679</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.10071924592777</v>
+        <v>12.91633532607168</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.10071924592777</v>
+        <v>29.83086837256949</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.10071924592777</v>
+        <v>36.2972679160375</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.10071924592777</v>
+        <v>-4.390100762206114</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.10071924592777</v>
+        <v>31.86306633693127</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.10071924592777</v>
+        <v>39.80501813515943</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>33.10071924592777</v>
+        <v>10.17579049789456</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.10071924592777</v>
+        <v>21.69791631899259</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.10071924592777</v>
+        <v>27.52926697830648</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33.10071924592777</v>
+        <v>22.4345916740227</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.10071924592777</v>
+        <v>26.59373167345936</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.10071924592777</v>
+        <v>30.95255561284907</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.10071924592777</v>
+        <v>32.94143547153359</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.10071924592777</v>
+        <v>39.98606464417978</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33.10071924592777</v>
+        <v>43.65507532254807</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.10071924592777</v>
+        <v>17.09168323610342</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.10071924592777</v>
+        <v>34.00991883218555</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>33.10071924592777</v>
+        <v>40.4775924771445</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.10071924592777</v>
+        <v>3.322210763903488</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.10071924592777</v>
+        <v>39.57553861798075</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.10071924592777</v>
+        <v>47.51799446894879</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.10071924592777</v>
+        <v>17.88818802325077</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.10071924592777</v>
+        <v>29.4109579002587</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33.10071924592777</v>
+        <v>35.2426764077255</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.10071924592777</v>
+        <v>30.14808369226884</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.10071924592777</v>
+        <v>34.3079600991309</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33.10071924592777</v>
+        <v>38.66708588178753</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.10071924592777</v>
+        <v>40.65690686136995</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.10071924592777</v>
+        <v>47.70185215785179</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.10071924592777</v>
+        <v>51.3710104258133</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.10071924592777</v>
+        <v>24.80637775885836</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.10071924592777</v>
+        <v>41.72523162427021</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.10071924592777</v>
+        <v>48.19332593880355</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.547451174078699</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.10071924592777</v>
+        <v>28.70214961029169</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.10071924592777</v>
+        <v>36.64211190409659</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.10071924592777</v>
+        <v>7.02226966012822</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.10071924592777</v>
+        <v>18.54146594899769</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.10071924592777</v>
+        <v>24.37146981745534</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.10071924592777</v>
+        <v>19.27765149218792</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.10071924592777</v>
+        <v>23.43478244585342</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.10071924592777</v>
+        <v>27.7925577396363</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.10071924592777</v>
+        <v>29.78107680794276</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.10071924592777</v>
+        <v>36.82395437177578</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.10071924592777</v>
+        <v>40.49205055727734</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.10071924592777</v>
+        <v>13.93228694548779</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.10071924592777</v>
+        <v>30.84750400933817</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.10071924592777</v>
+        <v>37.31360474868981</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.375227493667833</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.10071924592777</v>
+        <v>32.87860727077415</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.10071924592777</v>
+        <v>40.82022411252305</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.10071924592777</v>
+        <v>11.19098874324195</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.10071924592777</v>
+        <v>22.71373357524132</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.10071924592777</v>
+        <v>28.54479509761322</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.10071924592777</v>
+        <v>23.44990398214427</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.10071924592777</v>
+        <v>27.60961919643998</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.10071924592777</v>
+        <v>31.9682405997713</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.10071924592777</v>
+        <v>33.95722761268084</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>33.10071924592777</v>
+        <v>41.00205362558901</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.10071924592777</v>
+        <v>44.67080247395265</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.10071924592777</v>
+        <v>18.1068955838642</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.10071924592777</v>
+        <v>35.0258152233674</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.10071924592777</v>
+        <v>41.49318997080681</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.10071924592777</v>
+        <v>4.338126283637255</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.10071924592777</v>
+        <v>40.59212183087001</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.10071924592777</v>
+        <v>48.53424272267941</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.10071924592777</v>
+        <v>18.90442854186435</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.10071924592777</v>
+        <v>30.42781745718046</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.10071924592777</v>
+        <v>36.25924683890182</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.10071924592777</v>
+        <v>31.16443831291199</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.10071924592777</v>
+        <v>35.32488995802996</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.10071924592777</v>
+        <v>39.68381320947387</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.10071924592777</v>
+        <v>41.67374128567846</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.10071924592777</v>
+        <v>48.71888340799373</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.10071924592777</v>
+        <v>52.38777987883438</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.10071924592777</v>
+        <v>25.8226323768815</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.10071924592777</v>
+        <v>42.74217031331372</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.10071924592777</v>
+        <v>49.20996573673082</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.713589171128799</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.10071924592777</v>
+        <v>28.53599990562541</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.10071924592777</v>
+        <v>36.47591559493705</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.10071924592777</v>
+        <v>6.8559715609824</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.10071924592777</v>
+        <v>18.37513959627777</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.10071924592777</v>
+        <v>24.20510186510555</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>33.10071924592777</v>
+        <v>19.11142287796983</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.10071924592777</v>
+        <v>23.26852103911503</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.10071924592777</v>
+        <v>27.62625351333415</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.10071924592777</v>
+        <v>29.61486942807366</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.10071924592777</v>
+        <v>36.65773883851998</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.10071924592777</v>
+        <v>40.32581513754573</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.10071924592777</v>
+        <v>13.76611413160603</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.10071924592777</v>
+        <v>30.6813024881744</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.10071924592777</v>
+        <v>37.14735439842602</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.540647991612584</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.10071924592777</v>
+        <v>32.71317508604861</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.10071924592777</v>
+        <v>40.65474531991319</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.10071924592777</v>
+        <v>11.02540818029533</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.10071924592777</v>
+        <v>22.54812476804532</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.10071924592777</v>
+        <v>28.37914469258314</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>33.10071924592777</v>
+        <v>23.28439292610196</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.10071924592777</v>
+        <v>27.4440753571565</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>33.10071924592777</v>
+        <v>31.80265394134014</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.10071924592777</v>
+        <v>33.79173777955847</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.10071924592777</v>
+        <v>40.83655564152363</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.10071924592777</v>
+        <v>44.50528460313259</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.10071924592777</v>
+        <v>17.9414402983758</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>33.10071924592777</v>
+        <v>34.86033124460025</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.10071924592777</v>
+        <v>41.32765716250182</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.10071924592777</v>
+        <v>4.172710581468184</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.10071924592777</v>
+        <v>40.42669444664793</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>33.10071924592777</v>
+        <v>48.36876873013429</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.10071924592777</v>
+        <v>18.73885277062286</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.10071924592777</v>
+        <v>30.26221344800294</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.10071924592777</v>
+        <v>36.09360123317853</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>33.10071924592777</v>
+        <v>30.99893204957627</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.10071924592777</v>
+        <v>35.15935091702065</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.10071924592777</v>
+        <v>39.51823135088065</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.10071924592777</v>
+        <v>41.50825624324429</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>33.10071924592777</v>
+        <v>48.55339021783729</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33.10071924592777</v>
+        <v>52.22226680283788</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.10071924592777</v>
+        <v>25.65718187377272</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.10071924592777</v>
+        <v>42.57669112319783</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>33.10071924592777</v>
+        <v>49.04443771789144</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.10071924592777</v>
+        <v>-13.27281295493779</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.10071924592777</v>
+        <v>22.97586672967222</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>33.10071924592777</v>
+        <v>30.91600151077998</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>33.10071924592777</v>
+        <v>1.296234590424863</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.10071924592777</v>
+        <v>12.81460966936206</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.10071924592777</v>
+        <v>18.64477571488348</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>33.10071924592777</v>
+        <v>13.55128159766057</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.10071924592777</v>
+        <v>17.70768767238062</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.10071924592777</v>
+        <v>22.06555015172578</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.10071924592777</v>
+        <v>24.05414699493517</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.10071924592777</v>
+        <v>31.09676453915992</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.10071924592777</v>
+        <v>34.76505855587183</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.10071924592777</v>
+        <v>8.206226886299508</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.10071924592777</v>
+        <v>25.12054504389116</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.10071924592777</v>
+        <v>31.58679697903105</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>33.10071924592777</v>
+        <v>-9.099999950589133</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.10071924592777</v>
+        <v>27.15291364396009</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.10071924592777</v>
+        <v>35.09470303767429</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.10071924592777</v>
+        <v>5.465542993813276</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.10071924592777</v>
+        <v>16.98746657636136</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.10071924592777</v>
+        <v>22.81869033342625</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.10071924592777</v>
+        <v>21.88311364301044</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.10071924592777</v>
+        <v>26.24182228100378</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.10071924592777</v>
+        <v>28.23088706369228</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.10071924592777</v>
+        <v>35.27545304166549</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.10071924592777</v>
+        <v>38.94439976668579</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.10071924592777</v>
+        <v>12.38142478061932</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.10071924592777</v>
+        <v>29.29944546275997</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.10071924592777</v>
+        <v>35.76697146933324</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.10071924592777</v>
+        <v>-1.387222705182833</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.10071924592777</v>
+        <v>34.86585166105837</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.10071924592777</v>
+        <v>42.80814510550485</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.10071924592777</v>
+        <v>13.1784062558746</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.10071924592777</v>
+        <v>24.70097390911085</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.10071924592777</v>
+        <v>30.53256550965179</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.10071924592777</v>
+        <v>25.43808111602843</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>33.10071924592777</v>
+        <v>29.59780783624044</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.10071924592777</v>
+        <v>33.9568183119811</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>33.10071924592777</v>
+        <v>35.94682419377963</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.10071924592777</v>
+        <v>42.99170629735224</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>33.10071924592777</v>
+        <v>46.66080061201203</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.10071924592777</v>
+        <v>20.09658502885722</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>33.10071924592777</v>
+        <v>37.01522399550558</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.10071924592777</v>
+        <v>43.48317066673084</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.946445728892879</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.10071924592777</v>
+        <v>32.30273442382006</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.10071924592777</v>
+        <v>40.24287898603401</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.10071924592777</v>
+        <v>10.62325981605077</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.10071924592777</v>
+        <v>22.14213899265585</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>33.10071924592777</v>
+        <v>27.97233146130336</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.10071924592777</v>
+        <v>22.87866588413963</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.10071924592777</v>
+        <v>27.03552304763102</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.10071924592777</v>
+        <v>31.39341485248676</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.10071924592777</v>
+        <v>33.38175955418134</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.10071924592777</v>
+        <v>40.42457870669884</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>33.10071924592777</v>
+        <v>44.09287278125973</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.10071924592777</v>
+        <v>17.53333537793671</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>33.10071924592777</v>
+        <v>34.44818981489104</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.10071924592777</v>
+        <v>40.91446738606825</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.10071924592777</v>
+        <v>0.2280485291323409</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.10071924592777</v>
+        <v>36.48146262745828</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.10071924592777</v>
+        <v>44.42326178253674</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.10071924592777</v>
+        <v>14.79424956654984</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.10071924592777</v>
+        <v>26.31667728180671</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.10071924592777</v>
+        <v>32.14792743840721</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.10071924592777</v>
+        <v>31.21263046249212</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.10071924592777</v>
+        <v>35.57136840503048</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.10071924592777</v>
+        <v>37.56018102491359</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.10071924592777</v>
+        <v>44.60494862534549</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.10071924592777</v>
+        <v>48.27389539670978</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.10071924592777</v>
+        <v>21.71021464263854</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.10071924592777</v>
+        <v>38.62877164318522</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.10071924592777</v>
+        <v>45.09632326163657</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.10071924592777</v>
+        <v>7.939876231083392</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.10071924592777</v>
+        <v>44.19345106435318</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33.10071924592777</v>
+        <v>52.13575428214503</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.10071924592777</v>
+        <v>22.50616323242284</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.10071924592777</v>
+        <v>34.02923498587629</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.10071924592777</v>
+        <v>39.86085299934993</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.10071924592777</v>
+        <v>34.76619717931098</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.10071924592777</v>
+        <v>38.92637499577856</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.10071924592777</v>
+        <v>43.28541478681163</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.10071924592777</v>
+        <v>45.27516852503331</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.10071924592777</v>
+        <v>52.32025223922935</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.10071924592777</v>
+        <v>55.98934660529252</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.10071924592777</v>
+        <v>29.4244252914202</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.10071924592777</v>
+        <v>46.34360054076566</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.10071924592777</v>
+        <v>52.81157283728109</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.720646026110241</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.10071924592777</v>
+        <v>33.52765594616139</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.10071924592777</v>
+        <v>41.46717933278111</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.10071924592777</v>
+        <v>11.8489822400571</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.10071924592777</v>
+        <v>23.36791415813454</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.10071924592777</v>
+        <v>29.1976154064881</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.10071924592777</v>
+        <v>24.10396192317078</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.10071924592777</v>
+        <v>28.26114053459705</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.10071924592777</v>
+        <v>32.6186620825998</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>33.10071924592777</v>
+        <v>34.60703813849042</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>33.10071924592777</v>
+        <v>41.64975627595263</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>33.10071924592777</v>
+        <v>45.31768808787896</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.10071924592777</v>
+        <v>18.75871612750777</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.10071924592777</v>
+        <v>35.67347355019567</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>33.10071924592777</v>
+        <v>42.13921695770929</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>33.10071924592777</v>
+        <v>1.454874817638913</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.10071924592777</v>
+        <v>37.70741062866338</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.10071924592777</v>
+        <v>45.64858845848423</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.10071924592777</v>
+        <v>16.0209987940261</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.10071924592777</v>
+        <v>27.54347915172</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.10071924592777</v>
+        <v>33.37423796265531</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.10071924592777</v>
+        <v>28.27951183157788</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>33.10071924592777</v>
+        <v>32.43927463909708</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.10071924592777</v>
+        <v>36.79764221724994</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.10071924592777</v>
+        <v>38.78648618512395</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.10071924592777</v>
+        <v>45.83115270777236</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.10071924592777</v>
+        <v>49.49973714079974</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.10071924592777</v>
+        <v>22.93662202891491</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.10071924592777</v>
+        <v>39.85508191894755</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.10071924592777</v>
+        <v>46.3220992335724</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>33.10071924592777</v>
+        <v>9.167209389813113</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.10071924592777</v>
+        <v>23.73341933480649</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.10071924592777</v>
+        <v>35.25654371663106</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.10071924592777</v>
+        <v>41.08767037877428</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.10071924592777</v>
+        <v>35.99302683625578</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.10071924592777</v>
+        <v>40.15352601467325</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.10071924592777</v>
+        <v>44.51219543364024</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.10071924592777</v>
+        <v>46.50198045163663</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.10071924592777</v>
+        <v>53.54696306085188</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.10071924592777</v>
+        <v>57.21569510450954</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.10071924592777</v>
+        <v>30.65133947163676</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.10071924592777</v>
+        <v>47.57041759541684</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>33.10071924592777</v>
+        <v>54.03785557728426</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.10071924592777</v>
+        <v>-11.82050951957788</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.10071924592777</v>
+        <v>24.42727461446848</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.10071924592777</v>
+        <v>32.36712939258311</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.10071924592777</v>
+        <v>2.748269393972894</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.10071924592777</v>
+        <v>14.26651896385951</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.10071924592777</v>
+        <v>20.09644595405493</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.10071924592777</v>
+        <v>15.00306718843442</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.10071924592777</v>
+        <v>19.15956048074176</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.10071924592777</v>
+        <v>23.51726608145745</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.10071924592777</v>
+        <v>25.50575178897427</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.10071924592777</v>
+        <v>32.54816346430775</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.10071924592777</v>
+        <v>36.21624459526433</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.10071924592777</v>
+        <v>9.657948873125836</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>33.10071924592777</v>
+        <v>26.57199028756779</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.10071924592777</v>
+        <v>33.0379996763813</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.647620345308976</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>33.10071924592777</v>
+        <v>28.60439762884537</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.10071924592777</v>
+        <v>36.54590696248553</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.10071924592777</v>
+        <v>6.917654108373402</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.10071924592777</v>
+        <v>18.4394521269314</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.10071924592777</v>
+        <v>24.27043679722258</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.10071924592777</v>
+        <v>19.17598517968222</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.10071924592777</v>
+        <v>23.33506266395702</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.10071924592777</v>
+        <v>27.69361440550106</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.10071924592777</v>
+        <v>29.68256798401942</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>33.10071924592777</v>
+        <v>36.72692805228618</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.10071924592777</v>
+        <v>40.39566186171859</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>33.10071924592777</v>
+        <v>13.83322293154115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.10071924592777</v>
+        <v>30.75096681416457</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.10071924592777</v>
+        <v>37.21825023744404</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.10071924592777</v>
+        <v>0.06569281025153728</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.10071924592777</v>
+        <v>36.31787157501171</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.10071924592777</v>
+        <v>44.25988492114092</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.10071924592777</v>
+        <v>14.63105329575726</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.10071924592777</v>
+        <v>26.15349538874282</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.10071924592777</v>
+        <v>31.98484788279697</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.10071924592777</v>
+        <v>26.89047886862395</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.10071924592777</v>
+        <v>31.05029276819855</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>33.10071924592777</v>
+        <v>35.40914633481154</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.10071924592777</v>
+        <v>37.39904096274287</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>33.10071924592777</v>
+        <v>44.44371714310032</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.10071924592777</v>
+        <v>48.11259854769591</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>33.10071924592777</v>
+        <v>21.5489190367226</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>33.10071924592777</v>
+        <v>38.46728120892007</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>33.10071924592777</v>
+        <v>44.93498527319431</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.10071924592777</v>
+        <v>-8.66404347154403</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.10071924592777</v>
+        <v>27.58522743181718</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.10071924592777</v>
+        <v>35.52539470048643</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>33.10071924592777</v>
+        <v>5.905490618644397</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.10071924592777</v>
+        <v>17.42430727226767</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.10071924592777</v>
+        <v>23.25450495627124</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.10071924592777</v>
+        <v>18.16081088169958</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.10071924592777</v>
+        <v>22.31757564059533</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.10071924592777</v>
+        <v>26.67547108412132</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>33.10071924592777</v>
+        <v>28.66398534091863</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.10071924592777</v>
+        <v>35.70679451124803</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.10071924592777</v>
+        <v>39.37509313740938</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.10071924592777</v>
+        <v>12.81561478748811</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.10071924592777</v>
+        <v>29.73043205925953</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.10071924592777</v>
+        <v>36.19672008752011</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.10071924592777</v>
+        <v>-4.49051815905332</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.10071924592777</v>
+        <v>31.76298670027697</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.10071924592777</v>
+        <v>39.70480857271488</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.10071924592777</v>
+        <v>10.07551135655897</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>33.10071924592777</v>
+        <v>21.5978765530443</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.10071924592777</v>
+        <v>27.42913193418733</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.10071924592777</v>
+        <v>22.33436501706396</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.10071924592777</v>
+        <v>26.49371403763243</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.10071924592777</v>
+        <v>30.85245562548184</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.10071924592777</v>
+        <v>32.84143782522753</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.10071924592777</v>
+        <v>39.88619544944524</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.10071924592777</v>
+        <v>43.55514677626283</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.10071924592777</v>
+        <v>16.99152507519554</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.10071924592777</v>
+        <v>33.9100449152688</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.10071924592777</v>
+        <v>40.37760700032069</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.10071924592777</v>
+        <v>3.221804950401722</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.10071924592777</v>
+        <v>39.4754705604449</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.10071924592777</v>
+        <v>47.4177964972981</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.10071924592777</v>
+        <v>17.78792045302291</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.10071924592777</v>
+        <v>29.31092970465577</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.10071924592777</v>
+        <v>35.14255294444294</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.10071924592777</v>
+        <v>30.04786861286104</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.10071924592777</v>
+        <v>34.20795404051077</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.10071924592777</v>
+        <v>38.56699747790603</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.10071924592777</v>
+        <v>40.55692078542947</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.10071924592777</v>
+        <v>47.60199452818378</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.10071924592777</v>
+        <v>51.271093453563</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.10071924592777</v>
+        <v>24.70623116782528</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.10071924592777</v>
+        <v>41.62536927491735</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.10071924592777</v>
+        <v>48.09335204007411</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.10071924592777</v>
+        <v>2.62187757773231</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.10071924592777</v>
+        <v>38.87113265617003</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.10071924592777</v>
+        <v>46.81092824883396</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.10071924592777</v>
+        <v>17.19221270956038</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>33.10071924592777</v>
+        <v>28.71156519162966</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>33.10071924592777</v>
+        <v>34.54144843107312</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.10071924592777</v>
+        <v>29.44771365578694</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.10071924592777</v>
+        <v>33.6051198339072</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.10071924592777</v>
+        <v>37.96279110669875</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.10071924592777</v>
+        <v>39.95110099226596</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.10071924592777</v>
+        <v>46.99399974295224</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.10071924592777</v>
+        <v>50.6620265156557</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.10071924592777</v>
+        <v>24.1022417990466</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.10071924592777</v>
+        <v>41.01753721666009</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>33.10071924592777</v>
+        <v>47.48349601000641</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.10071924592777</v>
+        <v>6.794762021659356</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.10071924592777</v>
+        <v>43.04825099686317</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>33.10071924592777</v>
+        <v>50.98970107321506</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.10071924592777</v>
+        <v>21.36159261627344</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.10071924592777</v>
+        <v>32.88449359917647</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.10071924592777</v>
+        <v>38.71543443025072</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.10071924592777</v>
+        <v>33.62062693010566</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>33.10071924592777</v>
+        <v>37.78061734420427</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.10071924592777</v>
+        <v>42.13913467565598</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.10071924592777</v>
+        <v>44.12791251537371</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.10071924592777</v>
+        <v>51.17275968580233</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.10071924592777</v>
+        <v>54.84143909660619</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.10071924592777</v>
+        <v>28.27751119131162</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.10071924592777</v>
+        <v>45.19650913315306</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.10071924592777</v>
+        <v>51.6637418698725</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>33.10071924592777</v>
+        <v>14.50703945875941</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.10071924592777</v>
+        <v>50.76068916633446</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>33.10071924592777</v>
+        <v>58.70264328419805</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.10071924592777</v>
+        <v>29.07395602136919</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.10071924592777</v>
+        <v>40.59750103441954</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.10071924592777</v>
+        <v>46.42880971844542</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.10071924592777</v>
+        <v>41.33408481088779</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.10071924592777</v>
+        <v>45.49481160412992</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.10071924592777</v>
+        <v>49.85363078000884</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.10071924592777</v>
+        <v>51.84334970786173</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.10071924592777</v>
+        <v>58.88851297099515</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>33.10071924592777</v>
+        <v>62.55733999182084</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>33.10071924592777</v>
+        <v>35.99217154970196</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.10071924592777</v>
+        <v>52.91178773014801</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.10071924592777</v>
+        <v>59.37944113575051</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>33.10071924592777</v>
+        <v>-15.04945645374496</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.10071924592777</v>
+        <v>21.19782258971052</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.10071924592777</v>
+        <v>29.13762749653663</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.10071924592777</v>
+        <v>-0.4815251837672143</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.10071924592777</v>
+        <v>11.03657789586621</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.10071924592777</v>
+        <v>16.86647568596581</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.10071924592777</v>
+        <v>11.77307974926496</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.10071924592777</v>
+        <v>15.92949236945865</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.10071924592777</v>
+        <v>20.28720843905601</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>33.10071924592777</v>
+        <v>22.27565199905175</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.10071924592777</v>
+        <v>29.317947627483</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.10071924592777</v>
+        <v>32.98599114861335</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.10071924592777</v>
+        <v>6.42804127048473</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.10071924592777</v>
+        <v>23.34183817524113</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.10071924592777</v>
+        <v>29.80782902902692</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.10071924592777</v>
+        <v>-10.87751153092554</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.10071924592777</v>
+        <v>25.37400129648572</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.10071924592777</v>
+        <v>33.31546077666687</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.10071924592777</v>
+        <v>3.686915325785979</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.10071924592777</v>
+        <v>15.20856677891843</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.10071924592777</v>
+        <v>21.0395222875105</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.10071924592777</v>
+        <v>15.94505346191088</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.10071924592777</v>
+        <v>20.10405021609379</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.10071924592777</v>
+        <v>24.46261246040601</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.10071924592777</v>
+        <v>26.45152386195409</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.10071924592777</v>
+        <v>33.49576785061785</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.10071924592777</v>
+        <v>37.16446405458734</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.10071924592777</v>
+        <v>10.60237101641494</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>33.10071924592777</v>
+        <v>27.51987032017357</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.10071924592777</v>
+        <v>33.98713524229467</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.164189996648386</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.10071924592777</v>
+        <v>33.08748364023003</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>33.10071924592777</v>
+        <v>41.02944713391761</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.10071924592777</v>
+        <v>11.4003229046443</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.10071924592777</v>
+        <v>22.92261843838716</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.10071924592777</v>
+        <v>28.75394177730366</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.10071924592777</v>
+        <v>23.65955552904197</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.10071924592777</v>
+        <v>27.81928870689157</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.10071924592777</v>
+        <v>32.17815277964755</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.10071924592777</v>
+        <v>34.16800518516092</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>33.10071924592777</v>
+        <v>41.21256528627552</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.10071924592777</v>
+        <v>44.88140909784076</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.10071924592777</v>
+        <v>18.31807547608262</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.10071924592777</v>
+        <v>35.23619308094121</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>33.10071924592777</v>
+        <v>41.70387864817334</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.028940400498893</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>33.10071924592777</v>
+        <v>29.21967755443538</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.10071924592777</v>
+        <v>37.15932767662454</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.10071924592777</v>
+        <v>7.540086124157231</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.10071924592777</v>
+        <v>19.05889826350378</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>33.10071924592777</v>
+        <v>24.88866824730608</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.10071924592777</v>
+        <v>19.79517501642383</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.10071924592777</v>
+        <v>23.95211432097571</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.10071924592777</v>
+        <v>28.30970091975823</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.10071924592777</v>
+        <v>30.29816744160175</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.10071924592777</v>
+        <v>37.34085710857684</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.10071924592777</v>
+        <v>41.0088277516322</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.10071924592777</v>
+        <v>14.44978664626044</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.10071924592777</v>
+        <v>31.36448497799822</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.10071924592777</v>
+        <v>37.83032234676566</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.854592012428636</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.10071924592777</v>
+        <v>33.39825985715069</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.10071924592777</v>
+        <v>41.33956448895273</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.10071924592777</v>
+        <v>11.71093014357459</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.10071924592777</v>
+        <v>23.23329075173669</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.10071924592777</v>
+        <v>29.0641183697878</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.10071924592777</v>
+        <v>23.96955240222414</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>33.10071924592777</v>
+        <v>28.1290759185076</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.10071924592777</v>
+        <v>32.48750860818367</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.10071924592777</v>
+        <v>34.47644302443572</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.10071924592777</v>
+        <v>41.52108109986736</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.10071924592777</v>
+        <v>45.1897043905868</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>33.10071924592777</v>
+        <v>18.62652005864991</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.10071924592777</v>
+        <v>35.544920898051</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.10071924592777</v>
+        <v>42.01203224669482</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>33.10071924592777</v>
+        <v>4.85857805505643</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.10071924592777</v>
+        <v>41.11159071358642</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.10071924592777</v>
+        <v>49.05339938822326</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.10071924592777</v>
+        <v>19.42418620652584</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.10071924592777</v>
+        <v>30.94719089333146</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.10071924592777</v>
+        <v>36.77838636432475</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.10071924592777</v>
+        <v>31.68390298148163</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.10071924592777</v>
+        <v>35.84416292108685</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>33.10071924592777</v>
+        <v>40.20289745259296</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.10071924592777</v>
+        <v>42.19277288603232</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.10071924592777</v>
+        <v>49.23772706533984</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.10071924592777</v>
+        <v>52.90649797863486</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>33.10071924592777</v>
+        <v>26.34207305583957</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.10071924592777</v>
+        <v>43.26109218888868</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>33.10071924592777</v>
+        <v>49.72862420626356</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.10071924592777</v>
+        <v>-14.30978669431616</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.10071924592777</v>
+        <v>21.93833644341951</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.10071924592777</v>
+        <v>29.87804548874815</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.10071924592777</v>
+        <v>0.2586842483593479</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.10071924592777</v>
+        <v>11.77705451387951</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.10071924592777</v>
+        <v>17.60685731975056</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.10071924592777</v>
+        <v>12.5135468720217</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.10071924592777</v>
+        <v>16.67009526814045</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>33.10071924592777</v>
+        <v>21.02770421755392</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.10071924592777</v>
+        <v>23.01636288803522</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.10071924592777</v>
+        <v>30.05884278898984</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.10071924592777</v>
+        <v>33.72682805752092</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.10071924592777</v>
+        <v>7.168480535568708</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.10071924592777</v>
+        <v>24.08269199569267</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.10071924592777</v>
+        <v>30.54856847713458</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.10071924592777</v>
+        <v>-10.13790645466932</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.10071924592777</v>
+        <v>26.11445055909391</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.10071924592777</v>
+        <v>34.05581413450861</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.10071924592777</v>
+        <v>4.427059969805985</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.10071924592777</v>
+        <v>15.94897867673601</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.10071924592777</v>
+        <v>21.77983914486069</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>33.10071924592777</v>
+        <v>16.68545588243021</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.10071924592777</v>
+        <v>20.84458845999038</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>33.10071924592777</v>
+        <v>25.20304352903677</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.10071924592777</v>
+        <v>27.19217008411167</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.10071924592777</v>
+        <v>34.23659837911597</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.10071924592777</v>
+        <v>37.90523630771187</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.10071924592777</v>
+        <v>11.34274559278058</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.10071924592777</v>
+        <v>28.26065952488611</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.10071924592777</v>
+        <v>34.72781001596499</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.423831421914112</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.10071924592777</v>
+        <v>33.828686418302</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.10071924592777</v>
+        <v>41.77055401287484</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.10071924592777</v>
+        <v>12.14122105768022</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.10071924592777</v>
+        <v>23.66378387520851</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.10071924592777</v>
+        <v>29.4950121737106</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.10071924592777</v>
+        <v>24.400711513343</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.10071924592777</v>
+        <v>28.56058054104719</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.10071924592777</v>
+        <v>32.91933743538081</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>33.10071924592777</v>
+        <v>34.9094049970341</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>33.10071924592777</v>
+        <v>41.95414940751468</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.10071924592777</v>
+        <v>45.62293494854256</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.10071924592777</v>
+        <v>19.0592036002731</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.10071924592777</v>
+        <v>35.97773586112416</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.10071924592777</v>
+        <v>42.44530699811989</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.10071924592777</v>
+        <v>-18.11360753513148</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.10071924592777</v>
+        <v>18.13337223243568</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>33.10071924592777</v>
+        <v>26.07281429274494</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.545895554437177</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>33.10071924592777</v>
+        <v>7.971989521760495</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>33.10071924592777</v>
+        <v>13.8015884120558</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>33.10071924592777</v>
+        <v>8.708467358886399</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>33.10071924592777</v>
+        <v>12.86474433392639</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>33.10071924592777</v>
+        <v>17.22219589888684</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.10071924592777</v>
+        <v>19.21091126019755</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.10071924592777</v>
+        <v>26.25315657964368</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.10071924592777</v>
+        <v>29.92103981824673</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.10071924592777</v>
+        <v>3.363645506365149</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>33.10071924592777</v>
+        <v>20.27721679258193</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.10071924592777</v>
+        <v>26.7428690342824</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.10071924592777</v>
+        <v>-13.94117170284337</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>33.10071924592777</v>
+        <v>22.31004184124319</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.10071924592777</v>
+        <v>30.25113839825289</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.10071924592777</v>
+        <v>0.6230359103114758</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.10071924592777</v>
+        <v>12.14446933297708</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.10071924592777</v>
+        <v>17.97512586918751</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.10071924592777</v>
+        <v>12.88093202519403</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.10071924592777</v>
+        <v>17.03979311239127</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.10071924592777</v>
+        <v>21.39809078268067</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>33.10071924592777</v>
+        <v>23.38727399227796</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.10071924592777</v>
+        <v>30.43146765800711</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.10071924592777</v>
+        <v>34.10000354444409</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>33.10071924592777</v>
+        <v>7.538466113854586</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>33.10071924592777</v>
+        <v>24.45573977742558</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.10071924592777</v>
+        <v>30.92266600587525</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.10071924592777</v>
+        <v>-6.227026686445154</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.10071924592777</v>
+        <v>30.02434769403826</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.10071924592777</v>
+        <v>37.96594826157931</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.10071924592777</v>
+        <v>8.337266985610515</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.10071924592777</v>
+        <v>19.85934451417447</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.10071924592777</v>
+        <v>25.69036887264892</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.10071924592777</v>
+        <v>20.5962576298783</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.10071924592777</v>
+        <v>24.75585515880616</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.10071924592777</v>
+        <v>29.11445464721155</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.10071924592777</v>
+        <v>31.10457881726652</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.10071924592777</v>
+        <v>38.14908859319016</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.10071924592777</v>
+        <v>41.81777209049446</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.10071924592777</v>
+        <v>15.25499404458637</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.10071924592777</v>
+        <v>32.17288603414394</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.10071924592777</v>
+        <v>38.6402328995915</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.10071924592777</v>
+        <v>-10.02251409069632</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.10071924592777</v>
+        <v>26.22665850996097</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.10071924592777</v>
+        <v>34.16695534041784</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.10071924592777</v>
+        <v>4.546849461433883</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.10071924592777</v>
+        <v>16.06547466059621</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.10071924592777</v>
+        <v>21.89576369174833</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>33.10071924592777</v>
+        <v>16.80218859100714</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>33.10071924592777</v>
+        <v>20.95874558071316</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.10071924592777</v>
+        <v>25.31671617558627</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.10071924592777</v>
+        <v>27.3052109376666</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.10071924592777</v>
+        <v>34.34792648424579</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>33.10071924592777</v>
+        <v>38.01627093029182</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.10071924592777</v>
+        <v>11.4569374075447</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.10071924592777</v>
+        <v>28.37156041160071</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.10071924592777</v>
+        <v>34.83795456950017</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.10071924592777</v>
+        <v>-5.850318979155784</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.10071924592777</v>
+        <v>30.40308757038926</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.10071924592777</v>
+        <v>38.34503903998686</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>33.10071924592777</v>
+        <v>8.715539893549906</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.10071924592777</v>
+        <v>20.23771363182172</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.10071924592777</v>
+        <v>26.06906039722978</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.10071924592777</v>
+        <v>20.97441238930455</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.10071924592777</v>
+        <v>25.13355363173386</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.10071924592777</v>
+        <v>29.49237040642251</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.10071924592777</v>
+        <v>31.48133310367504</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.10071924592777</v>
+        <v>38.52599710390425</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.10071924592777</v>
+        <v>42.1949942685163</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.10071924592777</v>
+        <v>15.63151739676593</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.10071924592777</v>
+        <v>32.54984296125119</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>33.10071924592777</v>
+        <v>39.01751121645086</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.10071924592777</v>
+        <v>1.862383471253427</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.10071924592777</v>
+        <v>38.11595079136745</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.10071924592777</v>
+        <v>46.05840631258192</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.10071924592777</v>
+        <v>16.42832835086231</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.10071924592777</v>
+        <v>27.95114616277349</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.10071924592777</v>
+        <v>33.78286077530058</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.10071924592777</v>
+        <v>28.68829536376709</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.10071924592777</v>
+        <v>32.84817302966857</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.10071924592777</v>
+        <v>37.20729164612143</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.10071924592777</v>
+        <v>39.1971954568979</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.10071924592777</v>
+        <v>46.24217558460404</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>33.10071924592777</v>
+        <v>49.91132034208064</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.10071924592777</v>
+        <v>23.34660286536539</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>33.10071924592777</v>
+        <v>40.26554671760411</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>33.10071924592777</v>
+        <v>46.73363564098153</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.10071924592777</v>
+        <v>-9.413165758847779</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.10071924592777</v>
+        <v>26.8350061741846</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.10071924592777</v>
+        <v>34.77478558018285</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.10071924592777</v>
+        <v>5.155511916190083</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.10071924592777</v>
+        <v>16.67407590991863</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.10071924592777</v>
+        <v>22.5039457108222</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.10071924592777</v>
+        <v>17.41046283595447</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>33.10071924592777</v>
+        <v>21.56720111128877</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.10071924592777</v>
+        <v>25.92488955063445</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.10071924592777</v>
+        <v>27.91331572940985</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.10071924592777</v>
+        <v>34.95585240155273</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.10071924592777</v>
+        <v>38.62386986723729</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.10071924592777</v>
+        <v>12.065223514743</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.10071924592777</v>
+        <v>28.97960400309089</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.10071924592777</v>
+        <v>35.44556346694227</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.10071924592777</v>
+        <v>-5.241424820994805</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.10071924592777</v>
+        <v>31.01098096127632</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.10071924592777</v>
+        <v>38.95241490440318</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.10071924592777</v>
+        <v>9.323748379801916</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.10071924592777</v>
+        <v>20.84586078918116</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.10071924592777</v>
+        <v>26.67678826244932</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.10071924592777</v>
+        <v>21.58223256416315</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.10071924592777</v>
+        <v>25.7415550037409</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.10071924592777</v>
+        <v>30.10008957265572</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.10071924592777</v>
+        <v>32.08898364470653</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.10071924592777</v>
+        <v>39.13346870106633</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.10071924592777</v>
+        <v>42.80213882880807</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.10071924592777</v>
+        <v>16.23934930145501</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.10071924592777</v>
+        <v>33.15743223712795</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>33.10071924592777</v>
+        <v>39.62466572073399</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.10071924592777</v>
+        <v>2.471860517285766</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.10071924592777</v>
+        <v>38.72442710321488</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.10071924592777</v>
+        <v>46.66636507695316</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.10071924592777</v>
+        <v>17.03711974389703</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.10071924592777</v>
+        <v>28.55987623797168</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.10071924592777</v>
+        <v>34.39117155535675</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.10071924592777</v>
+        <v>29.29669843613303</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.10071924592777</v>
+        <v>33.45675730414857</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.10071924592777</v>
+        <v>37.81559370943975</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.10071924592777</v>
+        <v>39.80542879253923</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.10071924592777</v>
+        <v>46.85022995775043</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.10071924592777</v>
+        <v>50.51904770472024</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.10071924592777</v>
+        <v>23.95501757849908</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>33.10071924592777</v>
+        <v>40.87371881701173</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>33.10071924592777</v>
+        <v>47.34137295974969</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.10071924592777</v>
+        <v>-0.1646017188085374</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.10071924592777</v>
+        <v>36.08544977243091</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.10071924592777</v>
+        <v>44.02577579847591</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.10071924592777</v>
+        <v>14.40581266039689</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.10071924592777</v>
+        <v>25.92510443669389</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.10071924592777</v>
+        <v>31.75541698844481</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.10071924592777</v>
+        <v>26.66158258290304</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.10071924592777</v>
+        <v>30.81868957413312</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.10071924592777</v>
+        <v>35.17668217155412</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>33.10071924592777</v>
+        <v>37.16500598325305</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.10071924592777</v>
+        <v>44.20801453814929</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.10071924592777</v>
+        <v>47.87637097476258</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>33.10071924592777</v>
+        <v>21.31609349226639</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.10071924592777</v>
+        <v>38.23147026957369</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.10071924592777</v>
+        <v>44.69789150128835</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.10071924592777</v>
+        <v>4.008262199700741</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.10071924592777</v>
+        <v>40.26254769013164</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.10071924592777</v>
+        <v>48.20452833224667</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.10071924592777</v>
+        <v>18.57517191256054</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.10071924592777</v>
+        <v>30.09801228008994</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.10071924592777</v>
+        <v>35.92938253053282</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.10071924592777</v>
+        <v>30.83447526640314</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.10071924592777</v>
+        <v>34.99416655355614</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>33.10071924592777</v>
+        <v>39.35300529946866</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.10071924592777</v>
+        <v>41.34179707457835</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.10071924592777</v>
+        <v>48.38675410942139</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.10071924592777</v>
+        <v>52.05576325020056</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.10071924592777</v>
+        <v>25.49134238358224</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.10071924592777</v>
+        <v>42.41042177465701</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.10071924592777</v>
+        <v>48.87811706991815</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.10071924592777</v>
+        <v>11.7201419860389</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.10071924592777</v>
+        <v>47.97458820644587</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.10071924592777</v>
+        <v>55.91707291535474</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.10071924592777</v>
+        <v>26.28713766062342</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.10071924592777</v>
+        <v>37.81062206896726</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.10071924592777</v>
+        <v>43.64236018207302</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.10071924592777</v>
+        <v>38.54753550595566</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>33.10071924592777</v>
+        <v>42.70796318897337</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.10071924592777</v>
+        <v>47.06710378847239</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.10071924592777</v>
+        <v>49.05683670889729</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.10071924592777</v>
+        <v>56.10210985905391</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.10071924592777</v>
+        <v>59.77126659643463</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.10071924592777</v>
+        <v>33.20560516130919</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>33.10071924592777</v>
+        <v>50.12530280378004</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.10071924592777</v>
+        <v>56.59341878272934</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.10071924592777</v>
+        <v>-5.591330756092386</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.10071924592777</v>
+        <v>30.65714390080493</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>33.10071924592777</v>
+        <v>38.59725903819933</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.10071924592777</v>
+        <v>8.978054269719994</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.10071924592777</v>
+        <v>20.49655463689632</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.10071924592777</v>
+        <v>26.32672371575106</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.10071924592777</v>
+        <v>21.23320872311465</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>33.10071924592777</v>
+        <v>25.38980206710241</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.10071924592777</v>
+        <v>29.7476771668664</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.10071924592777</v>
+        <v>31.7360170154652</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>33.10071924592777</v>
+        <v>38.77864940878473</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.10071924592777</v>
+        <v>42.44693731353308</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.10071924592777</v>
+        <v>15.88800603660681</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.10071924592777</v>
+        <v>32.80239211959926</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.10071924592777</v>
+        <v>39.268645053928</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.10071924592777</v>
+        <v>-1.418224764342906</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.10071924592777</v>
+        <v>34.83448374691997</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.10071924592777</v>
+        <v>42.77625347049624</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.10071924592777</v>
+        <v>13.14765571929579</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.10071924592777</v>
+        <v>24.66970455038413</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.10071924592777</v>
+        <v>30.50093132076549</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.10071924592777</v>
+        <v>25.40634347783893</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.10071924592777</v>
+        <v>29.56552102246585</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.10071924592777</v>
+        <v>33.92424226489024</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.10071924592777</v>
+        <v>35.91305004753016</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.10071924592777</v>
+        <v>42.95763085214921</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.10071924592777</v>
+        <v>46.62657145581235</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.10071924592777</v>
+        <v>20.06349691099954</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.10071924592777</v>
+        <v>36.98158547594787</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.10071924592777</v>
+        <v>43.44911245934802</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.10071924592777</v>
+        <v>6.293585430039773</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.10071924592777</v>
+        <v>42.54645468163491</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.10071924592777</v>
+        <v>50.48872845628645</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.10071924592777</v>
+        <v>20.85955188697764</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.10071924592777</v>
+        <v>32.38224475402316</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.10071924592777</v>
+        <v>38.21383937036055</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.10071924592777</v>
+        <v>33.11933411209074</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.10071924592777</v>
+        <v>37.27924804297911</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>33.10071924592777</v>
+        <v>41.63827112586281</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.10071924592777</v>
+        <v>43.6280200170813</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>33.10071924592777</v>
+        <v>50.67291693696254</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>33.10071924592777</v>
+        <v>54.34200512821664</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>33.10071924592777</v>
+        <v>27.77769003269961</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.10071924592777</v>
+        <v>44.69639684566377</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.10071924592777</v>
+        <v>51.16434449608764</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.546265635356033</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.10071924592777</v>
+        <v>28.70350513259186</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.10071924592777</v>
+        <v>36.64370717629751</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>33.10071924592777</v>
+        <v>7.023236262864746</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.10071924592777</v>
+        <v>18.54236812883684</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.10071924592777</v>
+        <v>24.37257271673898</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.10071924592777</v>
+        <v>19.2788082141569</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.10071924592777</v>
+        <v>23.43579431396299</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.10071924592777</v>
+        <v>27.79372410925007</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>33.10071924592777</v>
+        <v>29.78219823592847</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.10071924592777</v>
+        <v>36.82508319331313</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.10071924592777</v>
+        <v>40.49332299389764</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.10071924592777</v>
+        <v>13.9333948750859</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.10071924592777</v>
+        <v>30.84857262825003</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.10071924592777</v>
+        <v>37.31488925553217</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.10071924592777</v>
+        <v>-3.373789214272872</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.10071924592777</v>
+        <v>32.88021555962698</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.10071924592777</v>
+        <v>40.82207221721555</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.10071924592777</v>
+        <v>11.1922080525321</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.10071924592777</v>
+        <v>22.714888478686</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.10071924592777</v>
+        <v>28.54615078499839</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.10071924592777</v>
+        <v>23.45131342689271</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.10071924592777</v>
+        <v>27.61088380021565</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.10071924592777</v>
+        <v>31.96965975859368</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.10071924592777</v>
+        <v>33.95860181000054</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.10071924592777</v>
+        <v>41.00343523058925</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.10071924592777</v>
+        <v>44.67232772884822</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.10071924592777</v>
+        <v>18.10825626034179</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.10071924592777</v>
+        <v>35.02713660874585</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.10071924592777</v>
+        <v>41.4947273113107</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.10071924592777</v>
+        <v>4.339032711918183</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.10071924592777</v>
+        <v>40.59319826363728</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.10071924592777</v>
+        <v>48.5355589799602</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.10071924592777</v>
+        <v>18.90511597864233</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.10071924592777</v>
+        <v>30.42844048674167</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.10071924592777</v>
+        <v>36.26007065853841</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.10071924592777</v>
+        <v>31.16531587344545</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.10071924592777</v>
+        <v>35.32562268034653</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.10071924592777</v>
+        <v>39.68470049357924</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.10071924592777</v>
+        <v>41.67458362694876</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>33.10071924592777</v>
+        <v>48.71973316844023</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.10071924592777</v>
+        <v>52.38877328418752</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>33.10071924592777</v>
+        <v>25.82346119951487</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.10071924592777</v>
+        <v>42.74295984456498</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.10071924592777</v>
+        <v>49.21097123055731</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.10071924592777</v>
+        <v>-11.9854353038518</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.10071924592777</v>
+        <v>24.26224981340815</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>33.10071924592777</v>
+        <v>32.20228594225691</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.10071924592777</v>
+        <v>2.583225090784001</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.10071924592777</v>
+        <v>14.101339013667</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.10071924592777</v>
+        <v>19.93143487699192</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.10071924592777</v>
+        <v>14.83801460291452</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>33.10071924592777</v>
+        <v>18.99435965963446</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.10071924592777</v>
+        <v>23.35218902765016</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.10071924592777</v>
+        <v>25.34060623141054</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.10071924592777</v>
+        <v>32.38300778049367</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.10071924592777</v>
+        <v>36.05122204300753</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.10071924592777</v>
+        <v>9.492897700703313</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.10071924592777</v>
+        <v>26.40679329854479</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.10071924592777</v>
+        <v>32.87297537327649</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>33.10071924592777</v>
+        <v>-7.812558616637968</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.10071924592777</v>
+        <v>28.43936031994028</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.10071924592777</v>
+        <v>36.38105105022905</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.10071924592777</v>
+        <v>6.752597296178667</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.10071924592777</v>
+        <v>18.27425964987501</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.10071924592777</v>
+        <v>24.10541323776929</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.10071924592777</v>
+        <v>19.0109200655962</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.10071924592777</v>
+        <v>23.16984929866416</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.10071924592777</v>
+        <v>27.52852484068919</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.10071924592777</v>
+        <v>29.51740991862298</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.10071924592777</v>
+        <v>36.56175985728757</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.10071924592777</v>
+        <v>40.23062682514373</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.10071924592777</v>
+        <v>13.66815924037244</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.10071924592777</v>
+        <v>30.58575728638707</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.10071924592777</v>
+        <v>37.05321344037597</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.10071924592777</v>
+        <v>-0.1001146473683114</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.10071924592777</v>
+        <v>36.15196506275626</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.10071924592777</v>
+        <v>44.09415982155755</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.10071924592777</v>
+        <v>14.46512725492753</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.10071924592777</v>
+        <v>25.98743366941685</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.10071924592777</v>
+        <v>31.81895508405032</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.10071924592777</v>
+        <v>26.72454450155405</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.10071924592777</v>
+        <v>30.88421014009632</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>33.10071924592777</v>
+        <v>35.24318750824452</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.10071924592777</v>
+        <v>37.23301365325082</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.10071924592777</v>
+        <v>44.2776797108456</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.10071924592777</v>
+        <v>47.94669426323193</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.10071924592777</v>
+        <v>21.38298612002163</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.10071924592777</v>
+        <v>38.30120244149734</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.10071924592777</v>
+        <v>44.76907924243457</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.10071924592777</v>
+        <v>-6.888288900981731</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>33.10071924592777</v>
+        <v>29.35999268414796</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.10071924592777</v>
+        <v>37.30011727829842</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>33.10071924592777</v>
+        <v>7.68095916535751</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>33.10071924592777</v>
+        <v>19.19934363111188</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.10071924592777</v>
+        <v>25.02951643308993</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.10071924592777</v>
+        <v>19.93602929965434</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.10071924592777</v>
+        <v>24.09253252704761</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>33.10071924592777</v>
+        <v>28.45041316783156</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.10071924592777</v>
+        <v>30.43876554611345</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>33.10071924592777</v>
+        <v>37.48134007055964</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.10071924592777</v>
+        <v>41.1496323050271</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.10071924592777</v>
+        <v>14.59086973779174</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.10071924592777</v>
+        <v>31.50511481093438</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.10071924592777</v>
+        <v>37.97137479056457</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.715569008512173</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.10071924592777</v>
+        <v>33.53694641182241</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.10071924592777</v>
+        <v>41.47872560036578</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.10071924592777</v>
+        <v>11.85017450801351</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.10071924592777</v>
+        <v>23.37210742348825</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.10071924592777</v>
+        <v>29.20333792708889</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.10071924592777</v>
+        <v>24.10877792239942</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.10071924592777</v>
+        <v>28.26786533834829</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>33.10071924592777</v>
+        <v>32.62659213187928</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.10071924592777</v>
+        <v>34.61541244111604</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.10071924592777</v>
+        <v>41.65993536969731</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.10071924592777</v>
+        <v>45.32888030775698</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.10071924592777</v>
+        <v>18.76597448542495</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.10071924592777</v>
+        <v>35.6839220234111</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>33.10071924592777</v>
+        <v>42.15145606305836</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.10071924592777</v>
+        <v>4.996337746697098</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>33.10071924592777</v>
+        <v>41.24901391119531</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.10071924592777</v>
+        <v>49.1912971470085</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.10071924592777</v>
+        <v>19.56216724567546</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>33.10071924592777</v>
+        <v>31.08474419813749</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.10071924592777</v>
+        <v>36.9163425447874</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.10071924592777</v>
+        <v>31.82186512763505</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>33.10071924592777</v>
+        <v>35.98168893018666</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.10071924592777</v>
+        <v>40.34071756235048</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>33.10071924592777</v>
+        <v>42.33047897778724</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>33.10071924592777</v>
+        <v>49.37531802304429</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.10071924592777</v>
+        <v>53.04441054682363</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.10071924592777</v>
+        <v>26.48026417314404</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.10071924592777</v>
+        <v>43.39882996115281</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>33.10071924592777</v>
+        <v>49.86678466453392</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.988319785304636</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.10071924592777</v>
+        <v>33.26033997305157</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.10071924592777</v>
+        <v>41.20034661647375</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.10071924592777</v>
+        <v>11.58137735378748</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>33.10071924592777</v>
+        <v>23.10005077535195</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.10071924592777</v>
+        <v>28.93011759829276</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.10071924592777</v>
+        <v>23.83662619267145</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>33.10071924592777</v>
+        <v>27.99339329886695</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.10071924592777</v>
+        <v>32.35119777019437</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>33.10071924592777</v>
+        <v>34.33951932712441</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.10071924592777</v>
+        <v>41.38217229929225</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>33.10071924592777</v>
+        <v>45.05034609132505</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.10071924592777</v>
+        <v>18.49124638805367</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.10071924592777</v>
+        <v>35.40582876591745</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>33.10071924592777</v>
+        <v>41.87197814551425</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.10071924592777</v>
+        <v>1.184382015309755</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.10071924592777</v>
+        <v>37.43727564598598</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>33.10071924592777</v>
+        <v>45.37893682979913</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>33.10071924592777</v>
+        <v>15.75057459682441</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>33.10071924592777</v>
+        <v>27.27279649220825</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.10071924592777</v>
+        <v>33.10392096942402</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.10071924592777</v>
+        <v>28.00935675669527</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.10071924592777</v>
+        <v>32.1687080697055</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.10071924592777</v>
+        <v>36.52735865376323</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.10071924592777</v>
+        <v>38.51614814955585</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.10071924592777</v>
+        <v>45.56074953181232</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.10071924592777</v>
+        <v>49.22957599858884</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.10071924592777</v>
+        <v>22.66633307849984</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.10071924592777</v>
+        <v>39.58461794955733</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>33.10071924592777</v>
+        <v>46.05204133730271</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.10071924592777</v>
+        <v>8.896689147489585</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.10071924592777</v>
+        <v>45.14974353551938</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.10071924592777</v>
+        <v>53.0919087570023</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>33.10071924592777</v>
+        <v>23.46296770158708</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.10071924592777</v>
+        <v>34.98583365114857</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.10071924592777</v>
+        <v>40.81732597139907</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>33.10071924592777</v>
+        <v>35.72284435019955</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>33.10071924592777</v>
+        <v>39.88293206276498</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>33.10071924592777</v>
+        <v>44.24188448551749</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>33.10071924592777</v>
+        <v>46.23161506702488</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>33.10071924592777</v>
+        <v>53.27653256124651</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>33.10071924592777</v>
+        <v>56.94550662730293</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.10071924592777</v>
+        <v>30.38102313524107</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>33.10071924592777</v>
+        <v>47.29992627161627</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.10071924592777</v>
+        <v>53.76777032075253</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.10071924592777</v>
+        <v>-6.39165675604843</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>33.10071924592777</v>
+        <v>29.85807047700584</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.10071924592777</v>
+        <v>37.79827696375307</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>33.10071924592777</v>
+        <v>8.177935780969367</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>33.10071924592777</v>
+        <v>19.69708509969118</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.10071924592777</v>
+        <v>25.52729145677094</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.10071924592777</v>
+        <v>20.43351528496814</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.10071924592777</v>
+        <v>24.59053161827635</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>33.10071924592777</v>
+        <v>28.94845882815591</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.10071924592777</v>
+        <v>30.93691003275135</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.10071924592777</v>
+        <v>37.97979903227574</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.10071924592777</v>
+        <v>41.6480487641621</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.10071924592777</v>
+        <v>15.08810963795836</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.10071924592777</v>
+        <v>32.00329431766224</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.10071924592777</v>
+        <v>38.46961183581172</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.10071924592777</v>
+        <v>-2.219122499618859</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.10071924592777</v>
+        <v>34.03483872398519</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.10071924592777</v>
+        <v>41.97669982464808</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.10071924592777</v>
+        <v>12.34696541127594</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.10071924592777</v>
+        <v>23.86966328270453</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.10071924592777</v>
+        <v>29.70092735732314</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.10071924592777</v>
+        <v>24.60607833151048</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.10071924592777</v>
+        <v>28.76567893304932</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.10071924592777</v>
+        <v>33.12445230531986</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.10071924592777</v>
+        <v>35.11337144007913</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.10071924592777</v>
+        <v>42.15820889788264</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.10071924592777</v>
+        <v>45.82711132863628</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.10071924592777</v>
+        <v>19.26302886253641</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.10071924592777</v>
+        <v>36.18191612736243</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.10071924592777</v>
+        <v>42.64950772041411</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>33.10071924592777</v>
+        <v>5.493424904361834</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.10071924592777</v>
+        <v>41.74754689453968</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.10071924592777</v>
+        <v>49.68991205582878</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.10071924592777</v>
+        <v>20.05959880107966</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.10071924592777</v>
+        <v>31.58294074344926</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.10071924592777</v>
+        <v>37.41457268505698</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.10071924592777</v>
+        <v>32.31980623021045</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>33.10071924592777</v>
+        <v>36.48014325518247</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.10071924592777</v>
+        <v>40.83921848405166</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.10071924592777</v>
+        <v>42.82907870447272</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.10071924592777</v>
+        <v>49.87423228099075</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.10071924592777</v>
+        <v>53.54328232737052</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.10071924592777</v>
+        <v>26.97795925808393</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>33.10071924592777</v>
+        <v>43.89746480805215</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.10071924592777</v>
+        <v>50.36547708635428</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-8.563063755129999</v>
+        <v>-8.563063755184569</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.68586941358464</v>
+        <v>27.68586941356054</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.62616657130715</v>
+        <v>35.62616657126418</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.006332107389742</v>
+        <v>6.006332107332671</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.52490939879815</v>
+        <v>17.5249093987562</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.35520232052611</v>
+        <v>23.35520232047677</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.26159992594657</v>
+        <v>18.26159992594464</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.41815567714216</v>
+        <v>22.41815567712874</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.77613343201753</v>
+        <v>26.77613343201719</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.76454537612787</v>
+        <v>28.76454537611878</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.80722610158179</v>
+        <v>35.80722610157406</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.47558405880679</v>
+        <v>39.47558405878087</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.91633532607168</v>
+        <v>12.9163353261084</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.83086837256949</v>
+        <v>29.83086837258972</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.2972679160375</v>
+        <v>36.29726791601067</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-4.390100762206114</v>
+        <v>-4.390100762236013</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.86306633693127</v>
+        <v>31.86306633691581</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.80501813515943</v>
+        <v>39.80501813513476</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.17579049789456</v>
+        <v>10.17579049797493</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.69791631899259</v>
+        <v>21.69791631896883</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.52926697830648</v>
+        <v>27.52926697838663</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.4345916740227</v>
+        <v>22.43459167395779</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.59373167345936</v>
+        <v>26.59373167346778</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.95255561284907</v>
+        <v>30.95255561280758</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.94143547153359</v>
+        <v>32.94143547147686</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.98606464417978</v>
+        <v>39.98606464416306</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43.65507532254807</v>
+        <v>43.65507532253466</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.09168323610342</v>
+        <v>17.09168323606852</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.00991883218555</v>
+        <v>34.009918832191</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40.4775924771445</v>
+        <v>40.47759247710425</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.322210763903488</v>
+        <v>3.322210763868018</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.57553861798075</v>
+        <v>39.57553861798507</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.51799446894879</v>
+        <v>47.51799446897175</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.88818802325077</v>
+        <v>17.88818802327294</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.4109579002587</v>
+        <v>29.41095790024426</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.2426764077255</v>
+        <v>35.24267640768457</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.14808369226884</v>
+        <v>30.1480836922602</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.3079600991309</v>
+        <v>34.30796009914113</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38.66708588178753</v>
+        <v>38.66708588175342</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.65690686136995</v>
+        <v>40.65690686135915</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.70185215785179</v>
+        <v>47.70185215786475</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>51.3710104258133</v>
+        <v>51.37101042581364</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.80637775885836</v>
+        <v>24.80637775885825</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.72523162427021</v>
+        <v>41.72523162427737</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.19332593880355</v>
+        <v>48.19332593880401</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-7.547451174078699</v>
+        <v>-7.547451174128152</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.70214961029169</v>
+        <v>28.70214961034592</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.64211190409659</v>
+        <v>36.64211190405771</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.02226966012822</v>
+        <v>7.022269660114123</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.54146594899769</v>
+        <v>18.54146594895176</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.37146981745534</v>
+        <v>24.3714698174027</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.27765149218792</v>
+        <v>19.27765149213346</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.43478244585342</v>
+        <v>23.43478244579953</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.7925577396363</v>
+        <v>27.79255773955569</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.78107680794276</v>
+        <v>29.78107680794639</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.82395437177578</v>
+        <v>36.82395437170496</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.49205055727734</v>
+        <v>40.49205055720833</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.93228694548779</v>
+        <v>13.93228694546665</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.84750400933817</v>
+        <v>30.84750400935795</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.31360474868981</v>
+        <v>37.31360474868686</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-3.375227493667833</v>
+        <v>-3.375227493775949</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.87860727077415</v>
+        <v>32.87860727074812</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.82022411252305</v>
+        <v>40.82022411253385</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.19098874324195</v>
+        <v>11.19098874318306</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.71373357524132</v>
+        <v>22.713733575237</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.54479509761322</v>
+        <v>28.5447950975657</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.44990398214427</v>
+        <v>23.449903982059</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.60961919643998</v>
+        <v>27.60961919637439</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.9682405997713</v>
+        <v>31.96824059969763</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.95722761268084</v>
+        <v>33.95722761269516</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.00205362558901</v>
+        <v>41.00205362557185</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44.67080247395265</v>
+        <v>44.67080247395469</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.1068955838642</v>
+        <v>18.10689558384363</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.0258152233674</v>
+        <v>35.02581522336092</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>41.49318997080681</v>
+        <v>41.49318997079533</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.338126283637255</v>
+        <v>4.338126283557674</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.59212183087001</v>
+        <v>40.59212183084648</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.53424272267941</v>
+        <v>48.53424272265281</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.90442854186435</v>
+        <v>18.90442854185651</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.42781745718046</v>
+        <v>30.42781745717307</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.25924683890182</v>
+        <v>36.25924683889306</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.16443831291199</v>
+        <v>31.16443831285276</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.32488995802996</v>
+        <v>35.32488995802802</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.68381320947387</v>
+        <v>39.68381320947546</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.67374128567846</v>
+        <v>41.67374128566937</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>48.71888340799373</v>
+        <v>48.71888340794325</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>52.38777987883438</v>
+        <v>52.38777987884234</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.8226323768815</v>
+        <v>25.8226323768898</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.74217031331372</v>
+        <v>42.74217031336022</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>49.20996573673082</v>
+        <v>49.2099657367414</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-7.713589171128799</v>
+        <v>-7.713589171122091</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.53599990562541</v>
+        <v>28.53599990565644</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.47591559493705</v>
+        <v>36.47591559493978</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.8559715609824</v>
+        <v>6.855971560968985</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>18.37513959627777</v>
+        <v>18.37513959629777</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.20510186510555</v>
+        <v>24.20510186513102</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.11142287796983</v>
+        <v>19.11142287786274</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.26852103911503</v>
+        <v>23.26852103908218</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.62625351333415</v>
+        <v>27.62625351338656</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.61486942807366</v>
+        <v>29.61486942807344</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.65773883851998</v>
+        <v>36.65773883846234</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.32581513754573</v>
+        <v>40.32581513756745</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.76611413160603</v>
+        <v>13.76611413158773</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.6813024881744</v>
+        <v>30.68130248816496</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.14735439842602</v>
+        <v>37.14735439840931</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-3.540647991612584</v>
+        <v>-3.54064799168864</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.71317508604861</v>
+        <v>32.7131750860228</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.65474531991319</v>
+        <v>40.65474531995321</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.02540818029533</v>
+        <v>11.02540818026987</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.54812476804532</v>
+        <v>22.54812476799041</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.37914469258314</v>
+        <v>28.37914469253539</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.28439292610196</v>
+        <v>23.28439292605671</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.4440753571565</v>
+        <v>27.44407535709272</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.80265394134014</v>
+        <v>31.80265394129683</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.79173777955847</v>
+        <v>33.79173777954608</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.83655564152363</v>
+        <v>40.83655564152193</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.50528460313259</v>
+        <v>44.50528460317443</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.9414402983758</v>
+        <v>17.94144029837785</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.86033124460025</v>
+        <v>34.86033124459968</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.32765716250182</v>
+        <v>41.32765716251581</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4.172710581468184</v>
+        <v>4.172710581404406</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.42669444664793</v>
+        <v>40.42669444666703</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.36876873013429</v>
+        <v>48.36876873007722</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.73885277062286</v>
+        <v>18.73885277058739</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.26221344800294</v>
+        <v>30.26221344800112</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.09360123317853</v>
+        <v>36.09360123317319</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.99893204957627</v>
+        <v>30.9989320495715</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.15935091702065</v>
+        <v>35.15935091701019</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.51823135088065</v>
+        <v>39.51823135087804</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.50825624324429</v>
+        <v>41.50825624324452</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.55339021783729</v>
+        <v>48.55339021781228</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.22226680283788</v>
+        <v>52.22226680285959</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.65718187377272</v>
+        <v>25.65718187375407</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.57669112319783</v>
+        <v>42.57669112323649</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.04443771789144</v>
+        <v>49.04443771789235</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-13.27281295493779</v>
+        <v>-13.27281295495586</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.97586672967222</v>
+        <v>22.97586672970917</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.91600151077998</v>
+        <v>30.91600151082477</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.296234590424863</v>
+        <v>1.296234590403945</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.81460966936206</v>
+        <v>12.81460966932204</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.64477571488348</v>
+        <v>18.64477571483812</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.55128159766057</v>
+        <v>13.55128159768808</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.70768767238062</v>
+        <v>17.70768767233037</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.06555015172578</v>
+        <v>22.06555015168223</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.05414699493517</v>
+        <v>24.0541469948291</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.09676453915992</v>
+        <v>31.09676453902873</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.76505855587183</v>
+        <v>34.76505855576042</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8.206226886299508</v>
+        <v>8.206226886311899</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.12054504389116</v>
+        <v>25.12054504384784</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.58679697903105</v>
+        <v>31.58679697900468</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-9.099999950589133</v>
+        <v>-9.099999950634835</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.15291364396009</v>
+        <v>27.152913643961</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.09470303767429</v>
+        <v>35.09470303767475</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5.465542993813276</v>
+        <v>5.465542993829875</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.98746657636136</v>
+        <v>16.98746657635727</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.81869033342625</v>
+        <v>22.81869033340113</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.88311364301044</v>
+        <v>21.88311364296087</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.24182228100378</v>
+        <v>26.24182228100742</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.23088706369228</v>
+        <v>28.23088706369092</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.27545304166549</v>
+        <v>35.2754530416864</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.94439976668579</v>
+        <v>38.94439976661315</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.38142478061932</v>
+        <v>12.38142478055861</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.29944546275997</v>
+        <v>29.29944546275087</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.76697146933324</v>
+        <v>35.76697146928424</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-1.387222705182833</v>
+        <v>-1.387222705190222</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.86585166105837</v>
+        <v>34.86585166106133</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.80814510550485</v>
+        <v>42.80814510550462</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>13.1784062558746</v>
+        <v>13.17840625591109</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.70097390911085</v>
+        <v>24.70097390910994</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.53256550965179</v>
+        <v>30.5325655096153</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.43808111602843</v>
+        <v>25.43808111603332</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.59780783624044</v>
+        <v>29.59780783621691</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.9568183119811</v>
+        <v>33.95681831191402</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.94682419377963</v>
+        <v>35.94682419373757</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.99170629735224</v>
+        <v>42.99170629726299</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.66080061201203</v>
+        <v>46.66080061196485</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.09658502885722</v>
+        <v>20.09658502881527</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.01522399550558</v>
+        <v>37.01522399544726</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.48317066673084</v>
+        <v>43.48317066666672</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-3.946445728892879</v>
+        <v>-3.946445728914707</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.30273442382006</v>
+        <v>32.30273442384143</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.24287898603401</v>
+        <v>40.2428789860347</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>10.62325981605077</v>
+        <v>10.62325981609192</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.14213899265585</v>
+        <v>22.14213899263936</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.97233146130336</v>
+        <v>27.97233146126857</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.87866588413963</v>
+        <v>22.87866588410131</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.03552304763102</v>
+        <v>27.03552304759942</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.39341485248676</v>
+        <v>31.39341485244276</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.38175955418134</v>
+        <v>33.38175955416861</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.42457870669884</v>
+        <v>40.42457870668383</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.09287278125973</v>
+        <v>44.09287278125927</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.53333537793671</v>
+        <v>17.53333537793523</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.44818981489104</v>
+        <v>34.44818981481305</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.91446738606825</v>
+        <v>40.91446738600504</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.2280485291323409</v>
+        <v>0.2280485291185848</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.48146262745828</v>
+        <v>36.4814626274883</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.42326178253674</v>
+        <v>44.42326178257574</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>14.79424956654984</v>
+        <v>14.79424956659202</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.31667728180671</v>
+        <v>26.31667728180841</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.14792743840721</v>
+        <v>32.14792743838004</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.21263046249212</v>
+        <v>31.21263046252418</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.57136840503048</v>
+        <v>35.5713684050381</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.56018102491359</v>
+        <v>37.56018102492234</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.60494862534549</v>
+        <v>44.60494862536515</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>48.27389539670978</v>
+        <v>48.27389539669818</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.71021464263854</v>
+        <v>21.7102146426673</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.62877164318522</v>
+        <v>38.62877164319431</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.09632326163657</v>
+        <v>45.0963232616327</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7.939876231083392</v>
+        <v>7.939876231042465</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>44.19345106435318</v>
+        <v>44.19345106429566</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.13575428214503</v>
+        <v>52.13575428212616</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.50616323242284</v>
+        <v>22.50616323242136</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.02923498587629</v>
+        <v>34.02923498586367</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.86085299934993</v>
+        <v>39.860852999309</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.76619717931098</v>
+        <v>34.76619717929688</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.92637499577856</v>
+        <v>38.92637499575605</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.28541478681163</v>
+        <v>43.28541478677207</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.27516852503331</v>
+        <v>45.27516852503888</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>52.32025223922935</v>
+        <v>52.3202522392348</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.98934660529252</v>
+        <v>55.98934660528559</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.4244252914202</v>
+        <v>29.42442529147283</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.34360054076566</v>
+        <v>46.34360054079102</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>52.81157283728109</v>
+        <v>52.81157283724653</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-2.720646026110241</v>
+        <v>-2.720646026130932</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.52765594616139</v>
+        <v>33.52765594619481</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.46717933278111</v>
+        <v>41.46717933279896</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>11.8489822400571</v>
+        <v>11.8489822401069</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.36791415813454</v>
+        <v>23.36791415813545</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.1976154064881</v>
+        <v>29.19761540650549</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.10396192317078</v>
+        <v>24.10396192311643</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.26114053459705</v>
+        <v>28.26114053455862</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.6186620825998</v>
+        <v>32.61866208255444</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>34.60703813849042</v>
+        <v>34.60703813849224</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>41.64975627595263</v>
+        <v>41.649756275969</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.31768808787896</v>
+        <v>45.31768808792637</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>18.75871612750777</v>
+        <v>18.75871612752301</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.67347355019567</v>
+        <v>35.6734735502001</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.13921695770929</v>
+        <v>42.13921695773999</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1.454874817638913</v>
+        <v>1.454874817704056</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.70741062866338</v>
+        <v>37.70741062866281</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.64858845848423</v>
+        <v>45.64858845846388</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.0209987940261</v>
+        <v>16.02099879405509</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.54347915172</v>
+        <v>27.54347915169942</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.37423796265531</v>
+        <v>33.37423796262269</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.27951183157788</v>
+        <v>28.27951183158993</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.43927463909708</v>
+        <v>32.43927463908082</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.79764221724994</v>
+        <v>36.79764221723596</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.78648618512395</v>
+        <v>38.78648618511724</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.83115270777236</v>
+        <v>45.83115270773189</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>49.49973714079974</v>
+        <v>49.49973714091308</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.93662202891491</v>
+        <v>22.93662202893163</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>39.85508191894755</v>
+        <v>39.85508191896631</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>46.3220992335724</v>
+        <v>46.32209923359525</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.167209389813113</v>
+        <v>9.167209389777302</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.73341933480649</v>
+        <v>23.73341933482547</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.25654371663106</v>
+        <v>35.25654371664936</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.08767037877428</v>
+        <v>41.0876703787612</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.99302683625578</v>
+        <v>35.99302683624475</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.15352601467325</v>
+        <v>40.15352601466608</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.51219543364024</v>
+        <v>44.51219543371687</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.50198045163663</v>
+        <v>46.50198045169415</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>53.54696306085188</v>
+        <v>53.54696306085131</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>57.21569510450954</v>
+        <v>57.21569510455194</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.65133947163676</v>
+        <v>30.65133947161539</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.57041759541684</v>
+        <v>47.57041759542184</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>54.03785557728426</v>
+        <v>54.03785557727937</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-11.82050951957788</v>
+        <v>-11.82050951962404</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.42727461446848</v>
+        <v>24.42727461443096</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.36712939258311</v>
+        <v>32.36712939260096</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2.748269393972894</v>
+        <v>2.748269393971757</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.26651896385951</v>
+        <v>14.26651896385497</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.09644595405493</v>
+        <v>20.09644595405777</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.00306718843442</v>
+        <v>15.00306718836916</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.15956048074176</v>
+        <v>19.15956048074154</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.51726608145745</v>
+        <v>23.51726608136116</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.50575178897427</v>
+        <v>25.50575178890151</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>32.54816346430775</v>
+        <v>32.54816346431321</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.21624459526433</v>
+        <v>36.2162445951935</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>9.657948873125836</v>
+        <v>9.657948873066491</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.57199028756779</v>
+        <v>26.57199028752311</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.0379996763813</v>
+        <v>33.03799967638835</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-7.647620345308976</v>
+        <v>-7.647620345367638</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.60439762884537</v>
+        <v>28.60439762887208</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.54590696248553</v>
+        <v>36.54590696244335</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.917654108373402</v>
+        <v>6.917654108291433</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.4394521269314</v>
+        <v>18.439452126889</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.27043679722258</v>
+        <v>24.27043679718631</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19.17598517968222</v>
+        <v>19.17598517965607</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.33506266395702</v>
+        <v>23.33506266389347</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.69361440550106</v>
+        <v>27.69361440543432</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.68256798401942</v>
+        <v>29.68256798397815</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.72692805228618</v>
+        <v>36.72692805223843</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.39566186171859</v>
+        <v>40.39566186163685</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>13.83322293154115</v>
+        <v>13.83322293159242</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.75096681416457</v>
+        <v>30.75096681416878</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.21825023744404</v>
+        <v>37.2182502374196</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.06569281025153728</v>
+        <v>0.06569281022845885</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.31787157501171</v>
+        <v>36.31787157496157</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>44.25988492114092</v>
+        <v>44.2598849211856</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>14.63105329575726</v>
+        <v>14.63105329573077</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.15349538874282</v>
+        <v>26.15349538867745</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.98484788279697</v>
+        <v>31.98484788279481</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.89047886862395</v>
+        <v>26.89047886857108</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.05029276819855</v>
+        <v>31.05029276818957</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.40914633481154</v>
+        <v>35.40914633476083</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.39904096274287</v>
+        <v>37.39904096269672</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.44371714310032</v>
+        <v>44.44371714308542</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>48.11259854769591</v>
+        <v>48.1125985476676</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>21.5489190367226</v>
+        <v>21.54891903673942</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.46728120892007</v>
+        <v>38.46728120884322</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.93498527319431</v>
+        <v>44.93498527314395</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-8.66404347154403</v>
+        <v>-8.664043471639982</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.58522743181718</v>
+        <v>27.58522743181331</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.52539470048643</v>
+        <v>35.5253947004737</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>5.905490618644397</v>
+        <v>5.905490618627571</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.42430727226767</v>
+        <v>17.42430727224209</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>23.25450495627124</v>
+        <v>23.25450495627033</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.16081088169958</v>
+        <v>18.16081088180792</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.31757564059533</v>
+        <v>22.31757564061261</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.67547108412132</v>
+        <v>26.67547108413325</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.66398534091863</v>
+        <v>28.66398534087657</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.70679451124803</v>
+        <v>35.70679451122041</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.37509313740938</v>
+        <v>39.37509313737198</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.81561478748811</v>
+        <v>12.81561478751664</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.73043205925953</v>
+        <v>29.73043205921576</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.19672008752011</v>
+        <v>36.19672008753614</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-4.49051815905332</v>
+        <v>-4.490518159089131</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.76298670027697</v>
+        <v>31.76298670026776</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.70480857271488</v>
+        <v>39.70480857276013</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.07551135655897</v>
+        <v>10.07551135652998</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>21.5978765530443</v>
+        <v>21.59787655303692</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.42913193418733</v>
+        <v>27.42913193410024</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.33436501706396</v>
+        <v>22.33436501709909</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.49371403763243</v>
+        <v>26.49371403753489</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.85245562548184</v>
+        <v>30.85245562542659</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.84143782522753</v>
+        <v>32.8414378251276</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>39.88619544944524</v>
+        <v>39.88619544938146</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.55514677626283</v>
+        <v>43.55514677621929</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.99152507519554</v>
+        <v>16.99152507512915</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.9100449152688</v>
+        <v>33.91004491526311</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>40.37760700032069</v>
+        <v>40.37760700029898</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.221804950401722</v>
+        <v>3.22180495034431</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>39.4754705604449</v>
+        <v>39.47547056043604</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.4177964972981</v>
+        <v>47.41779649727309</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.78792045302291</v>
+        <v>17.78792045304826</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.31092970465577</v>
+        <v>29.31092970459062</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.14255294444294</v>
+        <v>35.1425529443305</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.04786861286104</v>
+        <v>30.04786861280624</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.20795404051077</v>
+        <v>34.20795404045677</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.56699747790603</v>
+        <v>38.566997477846</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.55692078542947</v>
+        <v>40.55692078540616</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.60199452818378</v>
+        <v>47.60199452819629</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>51.271093453563</v>
+        <v>51.2710934535755</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.70623116782528</v>
+        <v>24.70623116775423</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.62536927491735</v>
+        <v>41.62536927486005</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.09335204007411</v>
+        <v>48.09335204002466</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2.62187757773231</v>
+        <v>2.621877577655798</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.87113265617003</v>
+        <v>38.87113265619698</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>46.81092824883396</v>
+        <v>46.810928248865</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.19221270956038</v>
+        <v>17.19221270960324</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.71156519162966</v>
+        <v>28.71156519158521</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.54144843107312</v>
+        <v>34.54144843104856</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.44771365578694</v>
+        <v>29.44771365575761</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>33.6051198339072</v>
+        <v>33.60511983394619</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.96279110669875</v>
+        <v>37.96279110665009</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.95110099226596</v>
+        <v>39.9511009922804</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>46.99399974295224</v>
+        <v>46.99399974289415</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>50.6620265156557</v>
+        <v>50.66202651560261</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.1022417990466</v>
+        <v>24.10224179907116</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.01753721666009</v>
+        <v>41.01753721666714</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>47.48349601000641</v>
+        <v>47.48349600996991</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>6.794762021659356</v>
+        <v>6.794762021630138</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43.04825099686317</v>
+        <v>43.04825099686272</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>50.98970107321506</v>
+        <v>50.9897010732046</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.36159261627344</v>
+        <v>21.36159261625821</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.88449359917647</v>
+        <v>32.88449359917192</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.71543443025072</v>
+        <v>38.71543443024197</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.62062693010566</v>
+        <v>33.62062693005677</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>37.78061734420427</v>
+        <v>37.780617344109</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.13913467565598</v>
+        <v>42.1391346756553</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.12791251537371</v>
+        <v>44.12791251537394</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>51.17275968580233</v>
+        <v>51.1727596857738</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.84143909660619</v>
+        <v>54.84143909658493</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.27751119131162</v>
+        <v>28.27751119128422</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.19650913315306</v>
+        <v>45.19650913314453</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>51.6637418698725</v>
+        <v>51.66374186979792</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.50703945875941</v>
+        <v>14.50703945875725</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>50.76068916633446</v>
+        <v>50.76068916634389</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.70264328419805</v>
+        <v>58.70264328419339</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.07395602136919</v>
+        <v>29.07395602135839</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.59750103441954</v>
+        <v>40.59750103443409</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.42880971844542</v>
+        <v>46.42880971846384</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.33408481088779</v>
+        <v>41.33408481080104</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.49481160412992</v>
+        <v>45.49481160410343</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.85363078000884</v>
+        <v>49.85363077996166</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>51.84334970786173</v>
+        <v>51.84334970786094</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>58.88851297099515</v>
+        <v>58.88851297095331</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>62.55733999182084</v>
+        <v>62.5573399917881</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.99217154970196</v>
+        <v>35.99217154974971</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>52.91178773014801</v>
+        <v>52.91178773011924</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.37944113575051</v>
+        <v>59.37944113568628</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-15.04945645374496</v>
+        <v>-15.04945645376963</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.19782258971052</v>
+        <v>21.19782258967993</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.13762749653663</v>
+        <v>29.13762749651014</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-0.4815251837672143</v>
+        <v>-0.48152518378404</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.03657789586621</v>
+        <v>11.0365778958803</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.86647568596581</v>
+        <v>16.86647568600481</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.77307974926496</v>
+        <v>11.77307974928314</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.92949236945865</v>
+        <v>15.92949236944989</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.28720843905601</v>
+        <v>20.28720843908113</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.27565199905175</v>
+        <v>22.27565199907994</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.317947627483</v>
+        <v>29.31794762740876</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.98599114861335</v>
+        <v>32.98599114863893</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>6.42804127048473</v>
+        <v>6.428041270407423</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.34183817524113</v>
+        <v>23.34183817525863</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.80782902902692</v>
+        <v>29.80782902905739</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-10.87751153092554</v>
+        <v>-10.87751153095556</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.37400129648572</v>
+        <v>25.3740012964415</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>33.31546077666687</v>
+        <v>33.31546077664265</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>3.686915325785979</v>
+        <v>3.686915325738571</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>15.20856677891843</v>
+        <v>15.20856677889558</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.0395222875105</v>
+        <v>21.03952228750572</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.94505346191088</v>
+        <v>15.94505346192486</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.10405021609379</v>
+        <v>20.10405021610504</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.46261246040601</v>
+        <v>24.46261246036554</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.45152386195409</v>
+        <v>26.45152386194727</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.49576785061785</v>
+        <v>33.49576785062683</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.16446405458734</v>
+        <v>37.16446405463952</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.60237101641494</v>
+        <v>10.60237101646303</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.51987032017357</v>
+        <v>27.51987032023132</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.98713524229467</v>
+        <v>33.98713524229058</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-3.164189996648386</v>
+        <v>-3.164189996736379</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.08748364023003</v>
+        <v>33.08748364027232</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>41.02944713391761</v>
+        <v>41.02944713391943</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.4003229046443</v>
+        <v>11.40032290456267</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.92261843838716</v>
+        <v>22.92261843831816</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.75394177730366</v>
+        <v>28.75394177723658</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.65955552904197</v>
+        <v>23.65955552902969</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.81928870689157</v>
+        <v>27.81928870686076</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.17815277964755</v>
+        <v>32.1781527795998</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.16800518516092</v>
+        <v>34.16800518517513</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.21256528627552</v>
+        <v>41.21256528624426</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>44.88140909784076</v>
+        <v>44.88140909780449</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.31807547608262</v>
+        <v>18.31807547609489</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.23619308094121</v>
+        <v>35.23619308097395</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>41.70387864817334</v>
+        <v>41.7038786481605</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-7.028940400498893</v>
+        <v>-7.028940400571425</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.21967755443538</v>
+        <v>29.21967755441583</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.15932767662454</v>
+        <v>37.15932767661795</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>7.540086124157231</v>
+        <v>7.540086124157003</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.05889826350378</v>
+        <v>19.05889826342102</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.88866824730608</v>
+        <v>24.88866824724321</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>19.79517501642383</v>
+        <v>19.79517501635494</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.95211432097571</v>
+        <v>23.95211432096344</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.30970091975823</v>
+        <v>28.30970091975584</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.29816744160175</v>
+        <v>30.29816744157799</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>37.34085710857684</v>
+        <v>37.34085710854592</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41.0088277516322</v>
+        <v>41.00882775154579</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.44978664626044</v>
+        <v>14.4497866462535</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.36448497799822</v>
+        <v>31.36448497800368</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.83032234676566</v>
+        <v>37.83032234669312</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-2.854592012428636</v>
+        <v>-2.854592012471155</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.39825985715069</v>
+        <v>33.39825985712318</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.33956448895273</v>
+        <v>41.33956448894057</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>11.71093014357459</v>
+        <v>11.71093014350456</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.23329075173669</v>
+        <v>23.23329075168292</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.0641183697878</v>
+        <v>29.06411836974926</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>23.96955240222414</v>
+        <v>23.96955240224563</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.1290759185076</v>
+        <v>28.12907591845712</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.48750860818367</v>
+        <v>32.48750860814025</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.47644302443572</v>
+        <v>34.4764430244031</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>41.52108109986736</v>
+        <v>41.52108109979812</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>45.1897043905868</v>
+        <v>45.18970439058305</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.62652005864991</v>
+        <v>18.62652005859511</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.544920898051</v>
+        <v>35.54492089805805</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.01203224669482</v>
+        <v>42.01203224663377</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>4.85857805505643</v>
+        <v>4.858578054980942</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.11159071358642</v>
+        <v>41.11159071357164</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.05339938822326</v>
+        <v>49.0533993881306</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.42418620652584</v>
+        <v>19.42418620646763</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.94719089333146</v>
+        <v>30.94719089332418</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.77838636432475</v>
+        <v>36.77838636426915</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.68390298148163</v>
+        <v>31.68390298147333</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.84416292108685</v>
+        <v>35.84416292101363</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.20289745259296</v>
+        <v>40.20289745255181</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.19277288603232</v>
+        <v>42.19277288593693</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.23772706533984</v>
+        <v>49.23772706538475</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.90649797863486</v>
+        <v>52.90649797867272</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.34207305583957</v>
+        <v>26.3420730558739</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.26109218888868</v>
+        <v>43.26109218885412</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.72862420626356</v>
+        <v>49.72862420621274</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-14.30978669431616</v>
+        <v>-14.30978669438255</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.93833644341951</v>
+        <v>21.93833644340348</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.87804548874815</v>
+        <v>29.87804548878782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.2586842483593479</v>
+        <v>0.2586842483601437</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.77705451387951</v>
+        <v>11.77705451379459</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.60685731975056</v>
+        <v>17.60685731971691</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.5135468720217</v>
+        <v>12.51354687204637</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.67009526814045</v>
+        <v>16.67009526812487</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.02770421755392</v>
+        <v>21.02770421757154</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.01636288803522</v>
+        <v>23.01636288806978</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.05884278898984</v>
+        <v>30.05884278895539</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.72682805752092</v>
+        <v>33.72682805748727</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.168480535568708</v>
+        <v>7.168480535542788</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.08269199569267</v>
+        <v>24.08269199563992</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.54856847713458</v>
+        <v>30.5485684771015</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-10.13790645466932</v>
+        <v>-10.13790645475879</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.11445055909391</v>
+        <v>26.11445055903696</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.05581413450861</v>
+        <v>34.05581413450849</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.427059969805985</v>
+        <v>4.427059969825766</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>15.94897867673601</v>
+        <v>15.94897867674203</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.77983914486069</v>
+        <v>21.77983914487536</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.68545588243021</v>
+        <v>16.68545588243737</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.84458845999038</v>
+        <v>20.84458845992069</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.20304352903677</v>
+        <v>25.20304352898401</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.19217008411167</v>
+        <v>27.19217008410269</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.23659837911597</v>
+        <v>34.23659837911154</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.90523630771187</v>
+        <v>37.90523630773734</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>11.34274559278058</v>
+        <v>11.34274559277251</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.26065952488611</v>
+        <v>28.26065952486781</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.72781001596499</v>
+        <v>34.72781001596897</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-2.423831421914112</v>
+        <v>-2.42383142195845</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.828686418302</v>
+        <v>33.82868641829052</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.77055401287484</v>
+        <v>41.77055401285438</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>12.14122105768022</v>
+        <v>12.14122105761735</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.66378387520851</v>
+        <v>23.6637838751677</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.4950121737106</v>
+        <v>29.49501217370969</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.400711513343</v>
+        <v>24.40071151332879</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.56058054104719</v>
+        <v>28.56058054098432</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>32.91933743538081</v>
+        <v>32.9193374353716</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.9094049970341</v>
+        <v>34.90940499705945</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>41.95414940751468</v>
+        <v>41.95414940750001</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.62293494854256</v>
+        <v>45.62293494855655</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.0592036002731</v>
+        <v>19.05920360024161</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.97773586112416</v>
+        <v>35.97773586105868</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.44530699811989</v>
+        <v>42.44530699809999</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-18.11360753513148</v>
+        <v>-18.11360753518002</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.13337223243568</v>
+        <v>18.13337223242124</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.07281429274494</v>
+        <v>26.07281429278575</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-3.545895554437177</v>
+        <v>-3.545895554440701</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.971989521760495</v>
+        <v>7.971989521851786</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.8015884120558</v>
+        <v>13.80158841204682</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.708467358886399</v>
+        <v>8.708467358866731</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.86474433392639</v>
+        <v>12.86474433389126</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.22219589888684</v>
+        <v>17.22219589882625</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.21091126019755</v>
+        <v>19.21091126015492</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.25315657964368</v>
+        <v>26.25315657962628</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.92103981824673</v>
+        <v>29.92103981824548</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.363645506365149</v>
+        <v>3.363645506428018</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.27721679258193</v>
+        <v>20.27721679263479</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.7428690342824</v>
+        <v>26.74286903426318</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-13.94117170284337</v>
+        <v>-13.94117170277539</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.31004184124319</v>
+        <v>22.3100418412615</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.25113839825289</v>
+        <v>30.25113839827927</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.6230359103114758</v>
+        <v>0.6230359102814624</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.14446933297708</v>
+        <v>12.14446933297879</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.97512586918751</v>
+        <v>17.97512586915977</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.88093202519403</v>
+        <v>12.88093202513764</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.03979311239127</v>
+        <v>17.03979311246153</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.39809078268067</v>
+        <v>21.39809078267828</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.38727399227796</v>
+        <v>23.38727399219929</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>30.43146765800711</v>
+        <v>30.43146765804156</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.10000354444409</v>
+        <v>34.10000354447047</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.538466113854586</v>
+        <v>7.538466113809907</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.45573977742558</v>
+        <v>24.45573977730826</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.92266600587525</v>
+        <v>30.9226660058209</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-6.227026686445154</v>
+        <v>-6.227026686483807</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.02434769403826</v>
+        <v>30.02434769404872</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.96594826157931</v>
+        <v>37.96594826161694</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.337266985610515</v>
+        <v>8.33726698549285</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.85934451417447</v>
+        <v>19.8593445140667</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.69036887264892</v>
+        <v>25.69036887257196</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.5962576298783</v>
+        <v>20.59625762987523</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.75585515880616</v>
+        <v>24.75585515882731</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.11445464721155</v>
+        <v>29.11445464719052</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.10457881726652</v>
+        <v>31.10457881722752</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>38.14908859319016</v>
+        <v>38.1490885932096</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.81777209049446</v>
+        <v>41.81777209048082</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.25499404458637</v>
+        <v>15.25499404461047</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.17288603414394</v>
+        <v>32.17288603409472</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.6402328995915</v>
+        <v>38.64023289960684</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-10.02251409069632</v>
+        <v>-10.02251409071041</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.22665850996097</v>
+        <v>26.22665850997348</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.16695534041784</v>
+        <v>34.16695534047059</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.546849461433883</v>
+        <v>4.546849461526197</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.06547466059621</v>
+        <v>16.06547466053062</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.89576369174833</v>
+        <v>21.89576369172559</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.80218859100714</v>
+        <v>16.80218859108638</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.95874558071316</v>
+        <v>20.95874558062494</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.31671617558627</v>
+        <v>25.31671617561458</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.3052109376666</v>
+        <v>27.30521093760271</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.34792648424579</v>
+        <v>34.34792648423453</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>38.01627093029182</v>
+        <v>38.01627093025442</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>11.4569374075447</v>
+        <v>11.4569374075696</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.37156041160071</v>
+        <v>28.37156041158241</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.83795456950017</v>
+        <v>34.83795456954348</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-5.850318979155784</v>
+        <v>-5.850318979191595</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.40308757038926</v>
+        <v>30.40308757041098</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.34503903998686</v>
+        <v>38.34503903997208</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>8.715539893549906</v>
+        <v>8.71553989362096</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.23771363182172</v>
+        <v>20.23771363179614</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.06906039722978</v>
+        <v>26.06906039724456</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.97441238930455</v>
+        <v>20.97441238925964</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.13355363173386</v>
+        <v>25.13355363168907</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.49237040642251</v>
+        <v>29.4923704064091</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.48133310367504</v>
+        <v>31.48133310354237</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>38.52599710390425</v>
+        <v>38.52599710390595</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>42.1949942685163</v>
+        <v>42.19499426847821</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.63151739676593</v>
+        <v>15.63151739672682</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.54984296125119</v>
+        <v>32.54984296124914</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.01751121645086</v>
+        <v>39.01751121642005</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.862383471253427</v>
+        <v>1.862383471185101</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>38.11595079136745</v>
+        <v>38.11595079133494</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.05840631258192</v>
+        <v>46.05840631248051</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.42832835086231</v>
+        <v>16.42832835088402</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.95114616277349</v>
+        <v>27.95114616267015</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.78286077530058</v>
+        <v>33.78286077523907</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.68829536376709</v>
+        <v>28.68829536380506</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.84817302966857</v>
+        <v>32.84817302964186</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.20729164612143</v>
+        <v>37.20729164608687</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.1971954568979</v>
+        <v>39.1971954569037</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>46.24217558460404</v>
+        <v>46.24217558460927</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>49.91132034208064</v>
+        <v>49.91132034203676</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.34660286536539</v>
+        <v>23.34660286538164</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.26554671760411</v>
+        <v>40.26554671753772</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.73363564098153</v>
+        <v>46.7336356409721</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-9.413165758847779</v>
+        <v>-9.413165758867788</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.8350061741846</v>
+        <v>26.83500617414299</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.77478558018285</v>
+        <v>34.77478558014647</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.155511916190083</v>
+        <v>5.155511916161547</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.67407590991863</v>
+        <v>16.67407590993693</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.5039457108222</v>
+        <v>22.5039457108031</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.41046283595447</v>
+        <v>17.41046283591445</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.56720111128877</v>
+        <v>21.56720111127649</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.92488955063445</v>
+        <v>25.92488955063081</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.91331572940985</v>
+        <v>27.91331572939973</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.95585240155273</v>
+        <v>34.95585240154102</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.62386986723729</v>
+        <v>38.62386986721683</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.065223514743</v>
+        <v>12.06522351473163</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.97960400309089</v>
+        <v>28.97960400307077</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.44556346694227</v>
+        <v>35.44556346693454</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-5.241424820994805</v>
+        <v>-5.241424821093599</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.01098096127632</v>
+        <v>31.01098096125745</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.95241490440318</v>
+        <v>38.95241490435578</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>9.323748379801916</v>
+        <v>9.323748379768151</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.84586078918116</v>
+        <v>20.8458607891167</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.67678826244932</v>
+        <v>26.67678826242909</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.58223256416315</v>
+        <v>21.58223256413394</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.7415550037409</v>
+        <v>25.74155500370077</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.10008957265572</v>
+        <v>30.10008957267027</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.08898364470653</v>
+        <v>32.08898364473745</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>39.13346870106633</v>
+        <v>39.13346870105542</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.80213882880807</v>
+        <v>42.80213882886605</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>16.23934930145501</v>
+        <v>16.23934930148775</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.15743223712795</v>
+        <v>33.15743223709339</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.62466572073399</v>
+        <v>39.62466572068828</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>2.471860517285766</v>
+        <v>2.471860517309413</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.72442710321488</v>
+        <v>38.72442710323853</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.66636507695316</v>
+        <v>46.6663650768987</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.03711974389703</v>
+        <v>17.03711974383575</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.55987623797168</v>
+        <v>28.55987623794985</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>34.39117155535675</v>
+        <v>34.39117155537824</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.29669843613303</v>
+        <v>29.29669843612666</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.45675730414857</v>
+        <v>33.45675730419177</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.81559370943975</v>
+        <v>37.81559370943907</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.80542879253923</v>
+        <v>39.80542879246511</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.85022995775043</v>
+        <v>46.85022995770859</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.51904770472024</v>
+        <v>50.51904770471728</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>23.95501757849908</v>
+        <v>23.95501757848044</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.87371881701173</v>
+        <v>40.87371881697467</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.34137295974969</v>
+        <v>47.34137295975469</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-0.1646017188085374</v>
+        <v>-0.1646017188833433</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.08544977243091</v>
+        <v>36.08544977244273</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.02577579847591</v>
+        <v>44.02577579848273</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>14.40581266039689</v>
+        <v>14.40581266042213</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.92510443669389</v>
+        <v>25.92510443669901</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.75541698844481</v>
+        <v>31.75541698842639</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.66158258290304</v>
+        <v>26.66158258292373</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.81868957413312</v>
+        <v>30.81868957402751</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.17668217155412</v>
+        <v>35.17668217150796</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.16500598325305</v>
+        <v>37.16500598327306</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.20801453814929</v>
+        <v>44.20801453813394</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>47.87637097476258</v>
+        <v>47.87637097471892</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.31609349226639</v>
+        <v>21.31609349227856</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.23147026957369</v>
+        <v>38.23147026955289</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.69789150128835</v>
+        <v>44.69789150128324</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>4.008262199700741</v>
+        <v>4.008262199693579</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.26254769013164</v>
+        <v>40.26254769010254</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.20452833224667</v>
+        <v>48.20452833225053</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.57517191256054</v>
+        <v>18.57517191253314</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.09801228008994</v>
+        <v>30.09801228002195</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.92938253053282</v>
+        <v>35.92938253049905</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.83447526640314</v>
+        <v>30.83447526643304</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.99416655355614</v>
+        <v>34.99416655352124</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>39.35300529946866</v>
+        <v>39.35300529940909</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.34179707457835</v>
+        <v>41.34179707455948</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.38675410942139</v>
+        <v>48.38675410945947</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.05576325020056</v>
+        <v>52.05576325020226</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.49134238358224</v>
+        <v>25.49134238363112</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.41042177465701</v>
+        <v>42.41042177464075</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.87811706991815</v>
+        <v>48.87811706983845</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.7201419860389</v>
+        <v>11.72014198596284</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.97458820644587</v>
+        <v>47.97458820639494</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.91707291535474</v>
+        <v>55.9170729153129</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.28713766062342</v>
+        <v>26.28713766063433</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.81062206896726</v>
+        <v>37.81062206892179</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.64236018207302</v>
+        <v>43.64236018203971</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.54753550595566</v>
+        <v>38.54753550592542</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.70796318897337</v>
+        <v>42.70796318894017</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.06710378847239</v>
+        <v>47.06710378849149</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.05683670889729</v>
+        <v>49.05683670886205</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.10210985905391</v>
+        <v>56.10210985901298</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>59.77126659643463</v>
+        <v>59.77126659641598</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>33.20560516130919</v>
+        <v>33.20560516136888</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>50.12530280378004</v>
+        <v>50.12530280374548</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.59341878272934</v>
+        <v>56.59341878271536</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-5.591330756092386</v>
+        <v>-5.591330756095569</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.65714390080493</v>
+        <v>30.65714390079583</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.59725903819933</v>
+        <v>38.59725903816999</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>8.978054269719994</v>
+        <v>8.978054269758761</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.49655463689632</v>
+        <v>20.49655463688723</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.32672371575106</v>
+        <v>26.32672371569831</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.23320872311465</v>
+        <v>21.23320872313784</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.38980206710241</v>
+        <v>25.38980206701055</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.7476771668664</v>
+        <v>29.74767716686583</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.7360170154652</v>
+        <v>31.73601701543666</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>38.77864940878473</v>
+        <v>38.77864940876233</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.44693731353308</v>
+        <v>42.44693731338177</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>15.88800603660681</v>
+        <v>15.88800603657419</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.80239211959926</v>
+        <v>32.80239211953844</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.268645053928</v>
+        <v>39.26864505393993</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-1.418224764342906</v>
+        <v>-1.418224764359277</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.83448374691997</v>
+        <v>34.83448374692099</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>42.77625347049624</v>
+        <v>42.77625347049783</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.14765571929579</v>
+        <v>13.14765571936741</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.66970455038413</v>
+        <v>24.66970455032171</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.50093132076549</v>
+        <v>30.50093132069171</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.40634347783893</v>
+        <v>25.40634347777697</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.56552102246585</v>
+        <v>29.5655210224497</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.92424226489024</v>
+        <v>33.92424226487194</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.91305004753016</v>
+        <v>35.91305004756393</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>42.95763085214921</v>
+        <v>42.95763085220366</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>46.62657145581235</v>
+        <v>46.62657145583555</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.06349691099954</v>
+        <v>20.0634969110557</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.98158547594787</v>
+        <v>36.98158547596731</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.44911245934802</v>
+        <v>43.4491124593545</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.293585430039773</v>
+        <v>6.293585430009532</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.54645468163491</v>
+        <v>42.54645468169517</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.48872845628645</v>
+        <v>50.48872845627042</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.85955188697764</v>
+        <v>20.8595518869108</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.38224475402316</v>
+        <v>32.3822447539321</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.21383937036055</v>
+        <v>38.21383937031314</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>33.11933411209074</v>
+        <v>33.11933411205288</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.27924804297911</v>
+        <v>37.27924804294261</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.63827112586281</v>
+        <v>41.63827112585918</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>43.6280200170813</v>
+        <v>43.62802001712848</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>50.67291693696254</v>
+        <v>50.67291693696754</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>54.34200512821664</v>
+        <v>54.34200512824222</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.77769003269961</v>
+        <v>27.77769003266392</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.69639684566377</v>
+        <v>44.69639684565672</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>51.16434449608764</v>
+        <v>51.16434449607297</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-7.546265635356033</v>
+        <v>-7.546265635344778</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.70350513259186</v>
+        <v>28.70350513261892</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.64370717629751</v>
+        <v>36.64370717631741</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.023236262864746</v>
+        <v>7.023236262858038</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.54236812883684</v>
+        <v>18.54236812877466</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.37257271673898</v>
+        <v>24.37257271671715</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.2788082141569</v>
+        <v>19.27880821414974</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.43579431396299</v>
+        <v>23.43579431394764</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.79372410925007</v>
+        <v>27.79372410920971</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.78219823592847</v>
+        <v>29.78219823592676</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.82508319331313</v>
+        <v>36.82508319326755</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.49332299389764</v>
+        <v>40.4933229938957</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>13.9333948750859</v>
+        <v>13.93339487508783</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.84857262825003</v>
+        <v>30.8485726281842</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.31488925553217</v>
+        <v>37.31488925549431</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-3.373789214272872</v>
+        <v>-3.373789214302999</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.88021555962698</v>
+        <v>32.88021555961242</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.82207221721555</v>
+        <v>40.82207221723715</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.1922080525321</v>
+        <v>11.19220805249867</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.714888478686</v>
+        <v>22.7148884786129</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.54615078499839</v>
+        <v>28.54615078497668</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>23.45131342689271</v>
+        <v>23.45131342681518</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.61088380021565</v>
+        <v>27.61088380012061</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.96965975859368</v>
+        <v>31.96965975854321</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.95860181000054</v>
+        <v>33.95860180997133</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>41.00343523058925</v>
+        <v>41.00343523055332</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.67232772884822</v>
+        <v>44.67232772881741</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.10825626034179</v>
+        <v>18.10825626036419</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.02713660874585</v>
+        <v>35.02713660877279</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.4947273113107</v>
+        <v>41.49472731131797</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>4.339032711918183</v>
+        <v>4.339032711791422</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>40.59319826363728</v>
+        <v>40.59319826359908</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.5355589799602</v>
+        <v>48.53555897995372</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.90511597864233</v>
+        <v>18.90511597864017</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.42844048674167</v>
+        <v>30.42844048669994</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.26007065853841</v>
+        <v>36.26007065853409</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.16531587344545</v>
+        <v>31.16531587339441</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.32562268034653</v>
+        <v>35.32562268033357</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>39.68470049357924</v>
+        <v>39.68470049350341</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.67458362694876</v>
+        <v>41.67458362692147</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.71973316844023</v>
+        <v>48.71973316843295</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>52.38877328418752</v>
+        <v>52.38877328420071</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.82346119951487</v>
+        <v>25.8234611994927</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.74295984456498</v>
+        <v>42.74295984461966</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>49.21097123055731</v>
+        <v>49.21097123052047</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-11.9854353038518</v>
+        <v>-11.98543530387374</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.26224981340815</v>
+        <v>24.26224981342225</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.20228594225691</v>
+        <v>32.20228594225634</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.583225090784001</v>
+        <v>2.583225090791164</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.101339013667</v>
+        <v>14.10133901366189</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.93143487699192</v>
+        <v>19.93143487699715</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.83801460291452</v>
+        <v>14.83801460287131</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.99435965963446</v>
+        <v>18.99435965961797</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.35218902765016</v>
+        <v>23.35218902763038</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.34060623141054</v>
+        <v>25.34060623139235</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.38300778049367</v>
+        <v>32.38300778049083</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.05122204300753</v>
+        <v>36.05122204299957</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>9.492897700703313</v>
+        <v>9.492897700703086</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.40679329854479</v>
+        <v>26.40679329853581</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.87297537327649</v>
+        <v>32.87297537326694</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-7.812558616637968</v>
+        <v>-7.812558616746994</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.43936031994028</v>
+        <v>28.43936031993278</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.38105105022905</v>
+        <v>36.38105105020756</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>6.752597296178667</v>
+        <v>6.752597296145471</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.27425964987501</v>
+        <v>18.27425964984772</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.10541323776929</v>
+        <v>24.10541323767754</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>19.0109200655962</v>
+        <v>19.01092006556891</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.16984929866416</v>
+        <v>23.16984929862574</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.52852484068919</v>
+        <v>27.52852484067123</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.51740991862298</v>
+        <v>29.51740991862184</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.56175985728757</v>
+        <v>36.56175985728063</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>40.23062682514373</v>
+        <v>40.23062682513975</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>13.66815924037244</v>
+        <v>13.6681592403705</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.58575728638707</v>
+        <v>30.58575728637206</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.05321344037597</v>
+        <v>37.05321344032777</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-0.1001146473683114</v>
+        <v>-0.1001146473854782</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.15196506275626</v>
+        <v>36.15196506283516</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>44.09415982155755</v>
+        <v>44.09415982156176</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>14.46512725492753</v>
+        <v>14.46512725486136</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.98743366941685</v>
+        <v>25.98743366935614</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.81895508405032</v>
+        <v>31.81895508403429</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.72454450155405</v>
+        <v>26.72454450154996</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.88421014009632</v>
+        <v>30.8842101400663</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.24318750824452</v>
+        <v>35.24318750821962</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.23301365325082</v>
+        <v>37.23301365321797</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.2776797108456</v>
+        <v>44.27767971086709</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.94669426323193</v>
+        <v>47.9466942632159</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>21.38298612002163</v>
+        <v>21.3829861200463</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.30120244149734</v>
+        <v>38.30120244149359</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.76907924243457</v>
+        <v>44.76907924242286</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-6.888288900981731</v>
+        <v>-6.888288900975706</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.35999268414796</v>
+        <v>29.35999268421219</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.30011727829842</v>
+        <v>37.30011727823145</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>7.68095916535751</v>
+        <v>7.680959165346597</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.19934363111188</v>
+        <v>19.19934363112268</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.02951643308993</v>
+        <v>25.02951643306332</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.93602929965434</v>
+        <v>19.93602929964513</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.09253252704761</v>
+        <v>24.09253252708865</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.45041316783156</v>
+        <v>28.45041316784361</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.43876554611345</v>
+        <v>30.43876554603876</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.48134007055964</v>
+        <v>37.48134007057635</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.1496323050271</v>
+        <v>41.14963230501937</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.59086973779174</v>
+        <v>14.59086973778708</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.50511481093438</v>
+        <v>31.50511481092335</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.97137479056457</v>
+        <v>37.97137479055377</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-2.715569008512173</v>
+        <v>-2.715569008617674</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.53694641182241</v>
+        <v>33.53694641173328</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.47872560036578</v>
+        <v>41.4787256003228</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.85017450801351</v>
+        <v>11.85017450804967</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.37210742348825</v>
+        <v>23.3721074234679</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.20333792708889</v>
+        <v>29.20333792712549</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.10877792239942</v>
+        <v>24.1087779223885</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.26786533834829</v>
+        <v>28.26786533831737</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>32.62659213187928</v>
+        <v>32.62659213187302</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.61541244111604</v>
+        <v>34.61541244101929</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.65993536969731</v>
+        <v>41.65993536964399</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.32888030775698</v>
+        <v>45.32888030765136</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>18.76597448542495</v>
+        <v>18.76597448541631</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.6839220234111</v>
+        <v>35.68392202345987</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.15145606305836</v>
+        <v>42.15145606302903</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>4.996337746697098</v>
+        <v>4.996337746602851</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>41.24901391119531</v>
+        <v>41.24901391125613</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>49.1912971470085</v>
+        <v>49.19129714695643</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.56216724567546</v>
+        <v>19.56216724568865</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.08474419813749</v>
+        <v>31.08474419814238</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.9163425447874</v>
+        <v>36.91634254472623</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.82186512763505</v>
+        <v>31.82186512762027</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.98168893018666</v>
+        <v>35.98168893015483</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.34071756235048</v>
+        <v>40.34071756230341</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.33047897778724</v>
+        <v>42.3304789778492</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>49.37531802304429</v>
+        <v>49.37531802299472</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.04441054682363</v>
+        <v>53.04441054684443</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.48026417314404</v>
+        <v>26.48026417314336</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.39882996115281</v>
+        <v>43.39882996111507</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.86678466453392</v>
+        <v>49.86678466447538</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-2.988319785304636</v>
+        <v>-2.988319785349088</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.26033997305157</v>
+        <v>33.26033997304964</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>41.20034661647375</v>
+        <v>41.20034661641873</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>11.58137735378748</v>
+        <v>11.58137735377293</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.10005077535195</v>
+        <v>23.10005077531477</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.93011759829276</v>
+        <v>28.93011759829196</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.83662619267145</v>
+        <v>23.8366261926644</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>27.99339329886695</v>
+        <v>27.99339329881773</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.35119777019437</v>
+        <v>32.35119777019392</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.33951932712441</v>
+        <v>34.33951932716431</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>41.38217229929225</v>
+        <v>41.38217229929555</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.05034609132505</v>
+        <v>45.05034609130971</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.49124638805367</v>
+        <v>18.49124638803253</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.40582876591745</v>
+        <v>35.40582876593439</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.87197814551425</v>
+        <v>41.87197814553551</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1.184382015309755</v>
+        <v>1.184382015210506</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>37.43727564598598</v>
+        <v>37.43727564596392</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.37893682979913</v>
+        <v>45.37893682978321</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>15.75057459682441</v>
+        <v>15.75057459679883</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.27279649220825</v>
+        <v>27.27279649216777</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.10392096942402</v>
+        <v>33.10392096936036</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.00935675669527</v>
+        <v>28.00935675665491</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.1687080697055</v>
+        <v>32.16870806971414</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.52735865376323</v>
+        <v>36.52735865376141</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>38.51614814955585</v>
+        <v>38.51614814955562</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>45.56074953181232</v>
+        <v>45.56074953183256</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>49.22957599858884</v>
+        <v>49.22957599856349</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.66633307849984</v>
+        <v>22.66633307851552</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.58461794955733</v>
+        <v>39.5846179495646</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.05204133730271</v>
+        <v>46.0520413372935</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>8.896689147489585</v>
+        <v>8.896689147429559</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>45.14974353551938</v>
+        <v>45.14974353549573</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>53.0919087570023</v>
+        <v>53.09190875697354</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.46296770158708</v>
+        <v>23.46296770153956</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.98583365114857</v>
+        <v>34.98583365113959</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.81732597139907</v>
+        <v>40.81732597142272</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>35.72284435019955</v>
+        <v>35.72284435020319</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>39.88293206276498</v>
+        <v>39.88293206269381</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.24188448551749</v>
+        <v>44.24188448549009</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>46.23161506702488</v>
+        <v>46.23161506698997</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>53.27653256124651</v>
+        <v>53.2765325612298</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>56.94550662730293</v>
+        <v>56.94550662727917</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.38102313524107</v>
+        <v>30.38102313529211</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.29992627161627</v>
+        <v>47.29992627159831</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>53.76777032075253</v>
+        <v>53.76777032075424</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-6.39165675604843</v>
+        <v>-6.391656756003638</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.85807047700584</v>
+        <v>29.85807047703824</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>37.79827696375307</v>
+        <v>37.79827696373363</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>8.177935780969367</v>
+        <v>8.177935780964138</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.69708509969118</v>
+        <v>19.69708509968266</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.52729145677094</v>
+        <v>25.52729145680152</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>20.43351528496814</v>
+        <v>20.43351528492142</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.59053161827635</v>
+        <v>24.59053161814402</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.94845882815591</v>
+        <v>28.948458828091</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.93691003275135</v>
+        <v>30.93691003271588</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.97979903227574</v>
+        <v>37.97979903227301</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.6480487641621</v>
+        <v>41.64804876410616</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>15.08810963795836</v>
+        <v>15.08810963795461</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.00329431766224</v>
+        <v>32.00329431766565</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.46961183581172</v>
+        <v>38.46961183580831</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-2.219122499618859</v>
+        <v>-2.21912249963523</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.03483872398519</v>
+        <v>34.03483872388287</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>41.97669982464808</v>
+        <v>41.97669982457884</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.34696541127594</v>
+        <v>12.34696541124012</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.86966328270453</v>
+        <v>23.86966328270976</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.70092735732314</v>
+        <v>29.70092735729949</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>24.60607833151048</v>
+        <v>24.60607833150627</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.76567893304932</v>
+        <v>28.76567893304761</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.12445230531986</v>
+        <v>33.12445230531452</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.11337144007913</v>
+        <v>35.11337144003559</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.15820889788264</v>
+        <v>42.15820889784456</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>45.82711132863628</v>
+        <v>45.8271113285725</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>19.26302886253641</v>
+        <v>19.26302886256653</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.18191612736243</v>
+        <v>36.18191612736175</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.64950772041411</v>
+        <v>42.64950772040604</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>5.493424904361834</v>
+        <v>5.493424904296919</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>41.74754689453968</v>
+        <v>41.7475468945108</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.68991205582878</v>
+        <v>49.68991205581969</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.05959880107966</v>
+        <v>20.05959880108592</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.58294074344926</v>
+        <v>31.58294074350701</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.41457268505698</v>
+        <v>37.41457268508017</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.31980623021045</v>
+        <v>32.31980623024546</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.48014325518247</v>
+        <v>36.48014325520612</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>40.83921848405166</v>
+        <v>40.83921848400971</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>42.82907870447272</v>
+        <v>42.82907870452399</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>49.87423228099075</v>
+        <v>49.87423228093061</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>53.54328232737052</v>
+        <v>53.54328232726309</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.97795925808393</v>
+        <v>26.97795925816351</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.89746480805215</v>
+        <v>43.89746480800531</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>50.36547708635428</v>
+        <v>50.36547708633609</v>
       </c>
     </row>
   </sheetData>
